--- a/sampleData/tour.xlsx
+++ b/sampleData/tour.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\project_capsure\n.05-docker-mongo\sampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6F360C-8214-4670-A806-0BF5B61982BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56390D-A4FE-4A14-A4B7-F31933AF6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{411CAE02-2DFB-4ACC-A9DF-9214D5D1CA1A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="plan" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">tour!$A$1:$L$31</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">tour!$A$1:$M$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,14 +48,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="509">
   <si>
     <t>28 Vo Van Tan Ward 6, District 3, Ho Chi Minh City, Vietnam</t>
   </si>
   <si>
-    <t>Ho Chi Minh City</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -74,18 +71,12 @@
     <t>Tuan Chau Port, Ngoc Chau Ward, Tuan Chau, Ha Long City, Quang Ninh, Vietnam</t>
   </si>
   <si>
-    <t>Quang Ninh</t>
-  </si>
-  <si>
     <t>Phu Hiep TL15 Phu Hiep, Ho Chi Minh City, Vietnam</t>
   </si>
   <si>
     <t>533 Đ. Hai Bà Trưng, Phường Cẩm Phổ, Hội An, Quảng Nam, Vietnam</t>
   </si>
   <si>
-    <t>Quang Nam</t>
-  </si>
-  <si>
     <t>Hoan Kiem District, Hanoi</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
   </si>
   <si>
     <t>Thành phố Huế, Thua Thien Hue</t>
-  </si>
-  <si>
-    <t>Thua Thien Hue</t>
   </si>
   <si>
     <t>Private Hanoi city tour full day</t>
@@ -162,9 +150,6 @@
 We owns many good guides with the internaional certificate</t>
   </si>
   <si>
-    <t>Hanoi Opera House, 1 Tràng Tiền, Phan Chu Trinh, Hoàn Kiếm, Hà Nội, Vietnam</t>
-  </si>
-  <si>
     <t>GOLDEN BRIDGE - BA NA Hills in the Early Morning to Avoid Crowds</t>
   </si>
   <si>
@@ -186,21 +171,12 @@
     <t>Travelers who love the outdoors will enjoy this two-day hiking tour in the Sapa area from Hanoi. Experience some of the most beautiful landscapes in northern Vietnam: terraced fields, mountains, and small villages. Spend the night in a bungalow in a hill tribe village, Ta Van, where you can learn more about rural Vietnamese life and culture. Receive personalized attention on a small-group tour (max. 15).</t>
   </si>
   <si>
-    <t>166 Tran Quang Khai Str, Ly Thai To, Hoan Kiem Dist, Hanoi</t>
-  </si>
-  <si>
-    <t>Lao Cai</t>
-  </si>
-  <si>
     <t>2-Day Mekong Delta Luxury Group Tour from Ho Chi Minh City</t>
   </si>
   <si>
     <t>Exploring the Mekong Delta for a day from Ho Chi Minh City may mean missing some aspects of this rural river region. This 2-day tour offers a deeper dive into its local life and scenery, including the early-morning Cai Rang floating market—something most day trips can’t do. Plus, cruise down canals, discover workshops and island villages, enjoy two lunches, and stay in your choice of hotel standard with breakfast.</t>
   </si>
   <si>
-    <t>55 Đỗ Quang Đẩu, Phường Phạm Ngũ Lão, Quận 1, Thành phố Hồ Chí Minh, Vietnam</t>
-  </si>
-  <si>
     <t>Ban Gioc Waterfall 2 Days 1 Night From Hanoi</t>
   </si>
   <si>
@@ -210,9 +186,6 @@
     <t>TL 211, Đàm Thuỷ, Trùng Khánh, Cao Bằng</t>
   </si>
   <si>
-    <t>Cao Bang</t>
-  </si>
-  <si>
     <t>Ha Giang Loop 4 Day trip with Easy Rider</t>
   </si>
   <si>
@@ -222,9 +195,6 @@
     <t>Ha giang City Area</t>
   </si>
   <si>
-    <t>Ha Giang</t>
-  </si>
-  <si>
     <t>Oasis Bay Party Cruise 2 Days 1 Night</t>
   </si>
   <si>
@@ -252,9 +222,6 @@
     <t>Bố Lù, Ba Bể District, Bắc Kạn Province</t>
   </si>
   <si>
-    <t>Bac Kan</t>
-  </si>
-  <si>
     <t>Nam Cat Tien National Park 2-Day Tour with Lodging, Meals, and Pickup</t>
   </si>
   <si>
@@ -262,9 +229,6 @@
   </si>
   <si>
     <t>Nam Cat Tien, Tân Phú District, Dong Nai</t>
-  </si>
-  <si>
-    <t>Dong Nai</t>
   </si>
   <si>
     <t>Mu Cang Chai rice terraces - 2024 Tour - New &amp; Exceptional</t>
@@ -281,9 +245,6 @@
     <t>Yên Bái, Vietnam</t>
   </si>
   <si>
-    <t>Yen Bai</t>
-  </si>
-  <si>
     <t>Coral Reef Snorkeling and Floating Bar Party from Nha Trang</t>
   </si>
   <si>
@@ -293,9 +254,6 @@
     <t>Fishing port Vinh Truong, 6622+HC3, Võ Thị Sáu, Vĩnh Trường, Nha Trang, Khánh Hòa, Vietnam</t>
   </si>
   <si>
-    <t>Khanh Hoa</t>
-  </si>
-  <si>
     <t>Colors of Incense village Quang Phu Cau</t>
   </si>
   <si>
@@ -309,9 +267,6 @@
   </si>
   <si>
     <t>H7JM+H65, Phong NHA, Bố Trạch, Quảng Bình</t>
-  </si>
-  <si>
-    <t>Quang Binh</t>
   </si>
   <si>
     <t>Vam Sat Mangrove Forest - VIP Private Tour from Ho Chi Minh City</t>
@@ -335,9 +290,6 @@
     <t>Rather than braving life and limb on Vietnam’s roads, let a professional take the wheel on this private guided door-to-door tour. Spend the morning exploring the Vietnam War–era Cu Chi Tunnels, then relax over a bowl of pho noodle soup. In the afternoon, see colonial landmarks like the Central Post Office and Notre-Dame Cathedral, explore the War Remnants Museum, shop at Ben Thanh Market, and more.</t>
   </si>
   <si>
-    <t>169 Đ. Lê Thánh Tôn, Phường Bến Thành, Quận 1, Thành phố Hồ Chí Minh, Vietnam</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -392,12 +344,6 @@
     <t>To really get to know a city well it's helpful to have a local guide. On this half-day walking tour of Hanoi's Old Quarter, your local guide will take you behind the scenes, to spots that many travelers miss, and tell you stories about life in the Vietnamese capital. Visit must-see attractions like Hoan Kiem Lake, Dong Xuan Market, and much more. An ideal tour for first-time visitors to Hanoi.</t>
   </si>
   <si>
-    <t>Thang Long Water Puppet Theatre</t>
-  </si>
-  <si>
-    <t>Tuần Châu Harbor / Tuan Chau Port</t>
-  </si>
-  <si>
     <t>Small-group Saigon City Tour: 4-Hour Must-see Landmarks &amp; Icons</t>
   </si>
   <si>
@@ -410,21 +356,12 @@
     <t>The Cu Chi Tunnels and Mekong Delta One Day-VIP Private Tour are ideal for those who want to avoid crowded touristy buses and want to have luxury 5-star services.\nOption 1: Transfer by limo with beer and snacks served in the car.\nOption 2: Transfer by private car/van\n-Explore the Cu Chi Tunnels' underground system.\n-Mekong River motorboat and rowing boat rides\n-Take a tour of a coconut candy factory and a bee farm.\n-Enjoy Vietnamese traditional folk music shows.\n-Visit the fruit garden, taste tropical fruits, and sip honey tea.</t>
   </si>
   <si>
-    <t>Hotel in districts 1, 2, 3, and 4</t>
-  </si>
-  <si>
-    <t>Mekong River Tours</t>
-  </si>
-  <si>
     <t>Marble Mountains - Hoi An Ancient Town Daily Ingroup Tour</t>
   </si>
   <si>
     <t>Gain a unique insight into the culture of Hoi An on a tour that takes in the Marble Mountain and its Buddhist monuments, statues, and sacred places. See the caves of Water Mountain, and walk the streets of Hoi An like a local, learning about the history of the city and its customs. Walk by the Huai River, and see colorful boats floating by, and lanterns hanging in the streets.</t>
   </si>
   <si>
-    <t>Hotel in Da Nang city</t>
-  </si>
-  <si>
     <t>tour</t>
   </si>
   <si>
@@ -440,1207 +377,1219 @@
     <t>Explore the Old Quarter like a local on this private guided half-day walking tour. Follow your student guide around to hidden gems and top sightseeing attractions, including Hoan Kiem Lake, Ancient House, Quan De Temple, Dong Xuan Market, Ho Chi Minh Mausoleum and more. Hear fascinating stories and learn more about Hanoi’s history and Vietnamese culture.</t>
   </si>
   <si>
-    <t>Thang Long Water Puppet Theatre, 57B P. Đinh Tiên Hoàng, Hàng Bạc, Hoàn Kiếm, Hà Nội, Vietnam</t>
-  </si>
-  <si>
-    <t>Hotel pickup</t>
-  </si>
-  <si>
-    <t>Any hotel in Ha Noi Old quarter</t>
-  </si>
-  <si>
-    <t>Hotels in Da Nang City Center</t>
-  </si>
-  <si>
     <t>Hanoi Military tour for half day</t>
   </si>
   <si>
-    <t>55 Do Quang Dau Street,District 1,Ho Chi Minh City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any hotel in Hoi An Area </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hà Nội, Vietnam</t>
   </si>
   <si>
-    <t>HOTELS in HOI AN or DA NANG CITY</t>
-  </si>
-  <si>
-    <t>Hotels in Hanoi old quarter or Hanoi Opera house 01 Trang Tien street, Hoan Kiem district</t>
-  </si>
-  <si>
     <t>Ninh Binh, Vietnam</t>
   </si>
   <si>
     <t>Lao Cai, Vietnam</t>
   </si>
   <si>
+    <t>Can Tho, Vietnam</t>
+  </si>
+  <si>
+    <t>18:30: Have dinner at the hotel/local restaurant.</t>
+  </si>
+  <si>
+    <t>08:50: Pickup</t>
+  </si>
+  <si>
+    <t>09:00: Lake of the Restored Sword (Hoan Kiem Lake)</t>
+  </si>
+  <si>
+    <t>10:00: Thap Rua Tower</t>
+  </si>
+  <si>
+    <t>10:15: Dong Xuan Market</t>
+  </si>
+  <si>
+    <t>10:45: Bach Ma Temple</t>
+  </si>
+  <si>
+    <t>11:15: Ancient House</t>
+  </si>
+  <si>
+    <t>11:45: Long Bien Bridge</t>
+  </si>
+  <si>
+    <t>12:00: Hanoi Train Street</t>
+  </si>
+  <si>
+    <t>12:30: Old Quarter</t>
+  </si>
+  <si>
+    <t>13:30: Den Quan De</t>
+  </si>
+  <si>
+    <t>14:10: Ba Dinh Square</t>
+  </si>
+  <si>
+    <t>14:40: Ho Chi Minh Mausoleum</t>
+  </si>
+  <si>
+    <t>14:45: St. Joseph's Cathedral</t>
+  </si>
+  <si>
+    <t>15:15: Hoa Lo Prison</t>
+  </si>
+  <si>
+    <t>16:15: Temple of Literature &amp; National University</t>
+  </si>
+  <si>
+    <t>17:15: Vietnam Museum of Ethnology</t>
+  </si>
+  <si>
+    <t>18:15: Vietnamese Women's Museum</t>
+  </si>
+  <si>
+    <t>19:15: Return</t>
+  </si>
+  <si>
+    <t>07:50: Pickup</t>
+  </si>
+  <si>
+    <t>08:00: Old Quarter</t>
+  </si>
+  <si>
+    <t>11:00: Halong Bay</t>
+  </si>
+  <si>
+    <t>16:00: Sung Sot Cave</t>
+  </si>
+  <si>
+    <t>16:30: Ti Top Island</t>
+  </si>
+  <si>
+    <t>17:00: Old Quarter</t>
+  </si>
+  <si>
+    <t>19:00: Return</t>
+  </si>
+  <si>
+    <t>09:00: Asiana Link Travel</t>
+  </si>
+  <si>
+    <t>09:15: The Independence Palace</t>
+  </si>
+  <si>
+    <t>10:00: War Remnants Museum</t>
+  </si>
+  <si>
+    <t>10:30: Central Post Office</t>
+  </si>
+  <si>
+    <t>11:00: Emperor Jade Pagoda</t>
+  </si>
+  <si>
+    <t>11:30: Ben Thanh Market</t>
+  </si>
+  <si>
+    <t>12:00: Return</t>
+  </si>
+  <si>
+    <t>09:00: Cu Chi Tunnels</t>
+  </si>
+  <si>
+    <t>12:00: My Tho</t>
+  </si>
+  <si>
+    <t>15:00: Return</t>
+  </si>
+  <si>
+    <t>09:00: The Marble Mountains</t>
+  </si>
+  <si>
+    <t>10:00: Hoi An Ancient Town</t>
+  </si>
+  <si>
+    <t>13:00: Fukian Assembly Hall (Phuc Kien)</t>
+  </si>
+  <si>
+    <t>13:15: Old House of Tan Ky</t>
+  </si>
+  <si>
+    <t>13:30: Japanese Covered Bridge</t>
+  </si>
+  <si>
+    <t>13:45: Return</t>
+  </si>
+  <si>
+    <t>09:00: Old Quarter</t>
+  </si>
+  <si>
+    <t>09:30: Ancient House</t>
+  </si>
+  <si>
+    <t>10:00: Long Bien Bridge</t>
+  </si>
+  <si>
+    <t>10:35: St. Joseph's Cathedral</t>
+  </si>
+  <si>
+    <t>10:55: Hoa Lo Prison</t>
+  </si>
+  <si>
+    <t>10:40: Return</t>
+  </si>
+  <si>
+    <t>09:00: Hue Imperial City (The Citadel)</t>
+  </si>
+  <si>
+    <t>11:00: Thien Mu Pagoda</t>
+  </si>
+  <si>
+    <t>11:40: Tomb of Minh Mang</t>
+  </si>
+  <si>
+    <t>12:40: Tomb of Khai Dinh</t>
+  </si>
+  <si>
+    <t>13:25: Tomb of Tu Duc</t>
+  </si>
+  <si>
+    <t>14:25: Return</t>
+  </si>
+  <si>
+    <t>09:00: Chua Tran Quoc</t>
+  </si>
+  <si>
+    <t>09:45: West Lake</t>
+  </si>
+  <si>
+    <t>10:00: Ho Chi Minh Mausoleum</t>
+  </si>
+  <si>
+    <t>11:30: Vietnam Museum of Ethnology</t>
+  </si>
+  <si>
+    <t>12:30: Temple of Literature &amp; National University</t>
+  </si>
+  <si>
+    <t>13:30: Dong Xuan Market</t>
+  </si>
+  <si>
+    <t>14:30: Return</t>
+  </si>
+  <si>
+    <t>09:00: My Son Sanctuary</t>
+  </si>
+  <si>
+    <t>10:30: The Marble Mountains</t>
+  </si>
+  <si>
+    <t>12:30: Linh Ung Pagoda</t>
+  </si>
+  <si>
+    <t>13:00: Return</t>
+  </si>
+  <si>
+    <t>09:00: Vietnam Military History Museum</t>
+  </si>
+  <si>
+    <t>11:00: Hoa Lo Prison</t>
+  </si>
+  <si>
+    <t>12:00: Huu Tiep Lake and the Downed B-52</t>
+  </si>
+  <si>
+    <t>12:20: Return</t>
+  </si>
+  <si>
+    <t>09:00: Central Post Office</t>
+  </si>
+  <si>
+    <t>09:30: War Remnants Museum</t>
+  </si>
+  <si>
+    <t>10:00: Saigon Notre Dame Cathedral</t>
+  </si>
+  <si>
+    <t>10:30: Cu Chi Tunnels</t>
+  </si>
+  <si>
+    <t>12:30: Return</t>
+  </si>
+  <si>
+    <t>08:50: Pickup to hotel</t>
+  </si>
+  <si>
+    <t>08:50: Pickup from hotel</t>
+  </si>
+  <si>
+    <t>09:00: Ho Chi Minh Mausoleum</t>
+  </si>
+  <si>
+    <t>09:45: One Pillar Pagoda</t>
+  </si>
+  <si>
+    <t>10:00: Temple of Literature &amp; National University</t>
+  </si>
+  <si>
+    <t>10:45: Vietnam Museum of Ethnology</t>
+  </si>
+  <si>
+    <t>11:30: Lake of the Restored Sword (Hoan Kiem Lake)</t>
+  </si>
+  <si>
+    <t>12:00: Return to hotel</t>
+  </si>
+  <si>
+    <t>09:00: Hoa Lu temples of the Dinh &amp; Le Dynasties</t>
+  </si>
+  <si>
+    <t>09:45: Tam Coc</t>
+  </si>
+  <si>
+    <t>17:15: Transit to Lao Cai</t>
+  </si>
+  <si>
+    <t>08:50: Pickup from Lao Cai station</t>
+  </si>
+  <si>
+    <t>05:30: Pick up from hotel</t>
+  </si>
+  <si>
+    <t>07:30: Enjoy your breakfast and relax at our restaurant while your luggage is arranged</t>
+  </si>
+  <si>
+    <t>08:30: Start 4 hours trekking to Lao Chai Village</t>
+  </si>
+  <si>
+    <t>12:00: Having lunch at a local restaurant before reaching Ta Van village to make friend with a Giáy family homestay.</t>
+  </si>
+  <si>
+    <t>13:30: Be picked up by car to get back to Sa Pa for checking in the hotel.</t>
+  </si>
+  <si>
+    <t>14:00: Free time</t>
+  </si>
+  <si>
+    <t>18:30: Have dinner and overnight  stay at hotel</t>
+  </si>
+  <si>
+    <t>07:50: Pickup from hotel</t>
+  </si>
+  <si>
+    <t>08:00: Have breakfast and start half day trekking through lush rice terraces towards villages, experience Black H’Mong people’s daily life. Visit Cat Cat villages.</t>
+  </si>
+  <si>
+    <t>12:00: Have lunch</t>
+  </si>
+  <si>
+    <t>13:00: Free time</t>
+  </si>
+  <si>
+    <t>17:00: Transfer to Lao Cai station for night train back to Hanoi</t>
+  </si>
+  <si>
+    <t>05:30: Our driver pick up you from Hanoi train station and take you to hotel for breakfast and relax. After breakfast, depart the capital for the drive to Halong Bay.</t>
+  </si>
+  <si>
+    <t>11:00: Arrive to Halong City’s jetty (around noon) and proceed with check-in formalities.</t>
+  </si>
+  <si>
+    <t>12:30: After a welcome onboard, lunch will be served while cruising towards the bay.</t>
+  </si>
+  <si>
+    <t>14:00: Enjoy some sightseeing, on-board activities (depending on each boat’s itinerary) or just spend some time relaxing on the vessel.</t>
+  </si>
+  <si>
+    <t>18:00: Dinner is served on board.</t>
+  </si>
+  <si>
+    <t>05:00: Enjoy a memorable sunrise over the karst formations of Halong Bay.</t>
+  </si>
+  <si>
+    <t>07:00: Enjoy breakfast (brunch on some boats) while the vessels cruises slowly through the magnificent rock formations back towards port.</t>
+  </si>
+  <si>
+    <t>12:00: Arriving at the harbor, you will be picked up for transferring back to Hanoi.</t>
+  </si>
+  <si>
+    <t>16:00: Drop off at your hotel</t>
+  </si>
+  <si>
+    <t>16:30: Free time</t>
+  </si>
+  <si>
+    <t>07:00: Have breakfast</t>
+  </si>
+  <si>
+    <t>08:30: Departure</t>
+  </si>
+  <si>
+    <t>11:00: Return</t>
+  </si>
+  <si>
+    <t>07:30: Get picked up by our friendly guide then depart for Ninh Binh province</t>
+  </si>
+  <si>
+    <t>09:15: Have a short break for 15 – 20 minutes to relax</t>
+  </si>
+  <si>
+    <t>10:30: Visit Hoa Lư ancient capital of Vietnam between 968 and 1010. You have a chance to learn about Vietnamese history in the feudal system under Dinh, Le, and Ly Dynasty</t>
+  </si>
+  <si>
+    <t>11:45: Have a buffet lunch in the restaurant with many local foods such as goat meat, fish, chicken, and fried rice…Vegetarian foods are always available in the buffet lunch</t>
+  </si>
+  <si>
+    <t>13:00: Visit Tam Coc by 1.5-hour bamboo boat. You will be surprised by the charming beauty here with paddy fields, river, water, cloud, sky, and a stunning cave system during the boat trip. All make a masterpiece that the Vietnamese people called “Ha Long Bay on land”</t>
+  </si>
+  <si>
+    <t>14:30: Continue the tour for 45 mins: cycling around the village to discover the life of the local people.</t>
+  </si>
+  <si>
+    <t>15:30: Get back to Limousine Bus then leave for Mua Cave (Dancing Cave). Walk up almost 500 steps, you can reach the top of Lying Dragon Mountain &amp; have an amazing panoramic view of Tam Coc from here </t>
+  </si>
+  <si>
+    <t>16:30: Get on the bus to return to Hanoi</t>
+  </si>
+  <si>
+    <t>18:30: Get dropped off at Hotel in Hanoi</t>
+  </si>
+  <si>
+    <t>05:00: Pickup</t>
+  </si>
+  <si>
+    <t>06:00: Golden Bridge</t>
+  </si>
+  <si>
+    <t>06:40: Ba Na Hills</t>
+  </si>
+  <si>
+    <t>08:40: Ba Na Cable Car</t>
+  </si>
+  <si>
+    <t>09:30: Return</t>
+  </si>
+  <si>
+    <t>10:00: Hoa Lu temples of the Dinh &amp; Le Dynasties</t>
+  </si>
+  <si>
+    <t>11:00: Continue the tour with 30 mins: cycling around the village to discover the life of local people.</t>
+  </si>
+  <si>
+    <t>11:45: Have lunch in the restaurant with a lot of local foods goat meat, fried rice…. Vegetarian foods is always available at the lunch.</t>
+  </si>
+  <si>
+    <t>13:00: Visit Tam Coc by 1.5 hours by bamboo boat. During the boat trip, you will be surprised by the charming beauty here with paddy field, river, water, cloud,sky and stunning cave system.</t>
+  </si>
+  <si>
+    <t>15:00: Climbing up almost 500 steps of Mua cave area, you can reach to the top of Lying Dragon Mountain &amp; have an amazing panoramic view of Tam Coc from here</t>
+  </si>
+  <si>
+    <t>16:00: Get on the bus to return to Hanoi.</t>
+  </si>
+  <si>
+    <t>18:30: Get dropped off at Hotels in Hanoi</t>
+  </si>
+  <si>
+    <t>06:00: Pick up from Hanoi Old Quarter, transfer to the big bus and depart to Sapa Town.</t>
+  </si>
+  <si>
+    <t>09:30: Follow the highway to Lao Cai city with the first comfort break</t>
+  </si>
+  <si>
+    <t>11:00: Second comfort break at Lao Cai city before approaching Sapa</t>
+  </si>
+  <si>
+    <t>13:00: Arrive in Sapa Town with colorful traditional costumes of H’Mong, Dzao, and Tay Ethnic People. The guide will pick up you at the bus station to have lunch at a local restaurant. • Enjoy lunch with local Vietnamese dishes.</t>
+  </si>
+  <si>
+    <t>14:30: Free time</t>
+  </si>
+  <si>
+    <t>18:00: Return to bungalow and have dinner</t>
+  </si>
+  <si>
+    <t>08:45: Trekking to the rice paddies where you have a nice photo session of the amazing surrounding landscapes. A trek through the bamboo forest and stop to have a panorama view of Giang Ta Chai village – home of red Dzao People.</t>
+  </si>
+  <si>
+    <t>11:00: Trek through the Giang Ta Chai Bridge to main road.</t>
+  </si>
+  <si>
+    <t>12.00: Back to the bungalow to shower and prepare for lunch.</t>
+  </si>
+  <si>
+    <t>12:30: Have lunch.</t>
+  </si>
+  <si>
+    <t>13:30: The van or car picks you up to come back to the bus station. They will give you the bus ticket.</t>
+  </si>
+  <si>
+    <t>14:00: You have free time to walk around Sapa Town or go shopping.</t>
+  </si>
+  <si>
+    <t>15:00: Meet all the group members at the bus station to get ready for Hanoi.</t>
+  </si>
+  <si>
+    <t>15:30: Get on the bus to go back to Hanoi with two rest stops.</t>
+  </si>
+  <si>
+    <t>21:30: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends</t>
+  </si>
+  <si>
+    <t>10:00: Arriving in My Tho, enjoy different types of boat trips (motorized boat trip, rowing boat trip) to islands where you can visit local houses, see how they make delicious coconut caramels and enjoy lunch.</t>
+  </si>
+  <si>
+    <t>15:00: Visit Vinh Trang Temple</t>
+  </si>
+  <si>
+    <t>17:00: Take a drive to Can Tho City for your hotel check-in and the night's stay. Overnight in Can Tho City.</t>
+  </si>
+  <si>
+    <t>06:00: Get up very early for breakfast</t>
+  </si>
+  <si>
+    <t>08:00: Catch the amazing and scenic Cai Rang Floating Market, where you can see all the trading activities in Mekong River.</t>
+  </si>
+  <si>
+    <t>14:00: Pay a visit a Vinh Trang Pagoda.</t>
+  </si>
+  <si>
+    <t>06:00: Pick up from the hotel in the Ha Noi Old Quarter.</t>
+  </si>
+  <si>
+    <t>07:15: Depart to Ban Gioc Waterfall – one of the four waterfalls located between 2 countries Vietnam: China, one of the most beautiful waterfalls in the world.</t>
+  </si>
+  <si>
+    <t>12:45: You will have lunch at a local restaurant.</t>
+  </si>
+  <si>
+    <t>13:30: Continue the journey to Ban Gioc Waterfall</t>
+  </si>
+  <si>
+    <t>15:00: Continue the journey to Nguom Ngao Cave</t>
+  </si>
+  <si>
+    <t>16:30: Check-in the hotel and relax.</t>
+  </si>
+  <si>
+    <t>07:00: Have breakfast and check-out</t>
+  </si>
+  <si>
+    <t>08:00: The driver and guide pick you up from the hotel to visit Ban Gioc Pagoda. From here, you can take a magnificent view above of Ban Gioc Waterfall.</t>
+  </si>
+  <si>
+    <t>10:00:  Come back to the car to visit Angle’s Eye Mountain which has a through hole</t>
+  </si>
+  <si>
+    <t>12:00: Have lunch at local restaurant in Quang Uyen District, Cao Bang.</t>
+  </si>
+  <si>
+    <t>13:00:  Get on the bus to come back to Hanoi.</t>
+  </si>
+  <si>
+    <t>18:30: Arrive in Hanoi.</t>
+  </si>
+  <si>
+    <t>06:50: Pick up</t>
+  </si>
+  <si>
+    <t>08:00:  Trip to explore the specific Karst Plateau with a 9-turn pass</t>
+  </si>
+  <si>
+    <t>10:00:  Explore Lung Cam village</t>
+  </si>
+  <si>
+    <t>14:00: Explore Vuong villa of H'Mong King</t>
+  </si>
+  <si>
+    <t>17:00: Arrival Dong Van town</t>
+  </si>
+  <si>
+    <t>18:00: Have dinner with local foods</t>
+  </si>
+  <si>
+    <t>19:00: Enjoy some activities such as a bonfire, local music, karaoke, playing game...</t>
+  </si>
+  <si>
+    <t>06:00: Have breakfast</t>
+  </si>
+  <si>
+    <t>07:00: Starting from Dong Van Town, pass through Pải Lủng Village</t>
+  </si>
+  <si>
+    <t>09:00: Venture into the bamboo forest of Thào Lủng</t>
+  </si>
+  <si>
+    <t>10:00: Continue ascent to Sả Lủng Village, located on high rocky terrain.</t>
+  </si>
+  <si>
+    <t>13:00: Following the hilly path, admire the views of the Nho Quế River, Hẻm Tu Sản, and the majestic Mã Pì Lèng Pass.</t>
+  </si>
+  <si>
+    <t>15:00:  The journey will lead to the "Rocky Cape" and the impressive "White Rock Wall"</t>
+  </si>
+  <si>
+    <t>16:00: Heading back to Dong Van Town to check in at the hotel.</t>
+  </si>
+  <si>
+    <t>19:00: Have dinner in Dong Van Town</t>
+  </si>
+  <si>
+    <t>07:00: Starting from Dong Van Town, go to explore Lung Ho village</t>
+  </si>
+  <si>
+    <t>10:00: Go to explore Mau Due village</t>
+  </si>
+  <si>
+    <t>13:00: Go to explore Meo Vac village</t>
+  </si>
+  <si>
+    <t>16:00: Go to Du Gia village for resting</t>
+  </si>
+  <si>
+    <t>07:00: Starting from Du Gia village, go to explore Lung Tam village</t>
+  </si>
+  <si>
+    <t>09:00: Arriving at Lung Tam village where Mong ethnies live and which has a traditionnal craft of brocade weaving.</t>
+  </si>
+  <si>
+    <t>09:10: Free time</t>
+  </si>
+  <si>
+    <t>08:00: Pick up from the Old Quarter Hanoi</t>
+  </si>
+  <si>
+    <t>12:15: Arrive to dock number 26 Tuan Chau Harbour.</t>
+  </si>
+  <si>
+    <t>12:30: Get transferred to Oasis cruise by tender, enjoy our welcome drink then check in in your cabin.</t>
+  </si>
+  <si>
+    <t>13:15: Have lunch at the cruise dinning area.</t>
+  </si>
+  <si>
+    <t>15:30: The cruise will bring you to the most traquil area of Halong Bay, getting away from the crowd where you can do somersault, backflip, kayak or take a dive. To top off, we also have a giant trampoline and jacuzzi arranged around the cruise.</t>
+  </si>
+  <si>
+    <t>17:30: It is time for the Sunset party where you can buy 02 get 01 drink for free during Happy Hours.</t>
+  </si>
+  <si>
+    <t>19:00: Enjoy delicious food prepared by the best Chef in Ha Long Bay at the cruise dining area.</t>
+  </si>
+  <si>
+    <t>21:00: Onwards Join Oasis cruise night-life activities such as dancing, playing games, or enjoying your drinks in the jacuzzi.</t>
+  </si>
+  <si>
+    <t>06:45: Rise and shine. Do not miss out on the Halong magnificent dawn in the middle of the Bay while having a delicious breakfast.</t>
+  </si>
+  <si>
+    <t>08:40: Check out and settle your bill.</t>
+  </si>
+  <si>
+    <t>10:30: Have brunch at the Cruise dining area.</t>
+  </si>
+  <si>
+    <t>11:30: Arrive to dock number 26 Tuan Chau.</t>
+  </si>
+  <si>
+    <t>12:15: Bus pick up from dock number 26 Tuan Chau.</t>
+  </si>
+  <si>
+    <t>16:00: Arrive in Hanoi Old Quarter.</t>
+  </si>
+  <si>
+    <t>09:30: Follow the highway to Lao Cai city with the first comfort break.</t>
+  </si>
+  <si>
+    <t>11:00: Second comfort break at Lao Cai city before approaching Sapa.</t>
+  </si>
+  <si>
+    <t>13:00: Arrive Sapa Town with colorful traditional costumes of H’mong, Dzao, Tay ethnic People. And the tour guide &amp; driver pick up you at the bus station to Hotel. • Welcome drink and itinerary briefing. • Enjoy the lunch with local Vietnamese dishes, check-in procedures.</t>
+  </si>
+  <si>
+    <t>14:30: A short drive to the gate of Cat Cat village which is home of Black H’mong ethnic people and is located near the bottom of a deep valley at the foot of Fansipan Peak.</t>
+  </si>
+  <si>
+    <t>15:30: Trek down to the valley bottom to the waterfall where the French built a Hydraulic Power Station</t>
+  </si>
+  <si>
+    <t>16:30: Stop for photo with bridge and waterfall then you will walk uphill for bus to pick up to get back to Sapa in the afternoon.</t>
+  </si>
+  <si>
+    <t>17:00: Come back to Sapa Town.</t>
+  </si>
+  <si>
+    <t>19:00: Have dinner and overnight in hotel with night activities.</t>
+  </si>
+  <si>
+    <t>07:30: Have breakfast at the hotel and check-out the hotel</t>
+  </si>
+  <si>
+    <t>08:30: Our driver will take you to Cable Car Station and then you will spend 20 minutes with cable car to enjoy the spectacular scenery.</t>
+  </si>
+  <si>
+    <t>09:00: Reach the altitute of 2800 meters, you have a good time to see the view and take photos, visit pagoda the spiritual destinations.</t>
+  </si>
+  <si>
+    <t>10:30:  Trek up to 600 steps you will reach the peak of Fansipan – the Roof of Indochina.</t>
+  </si>
+  <si>
+    <t>12:00: Come back to Cable Car Station and return to Sapa town.</t>
+  </si>
+  <si>
+    <t>12:30: Have lunch in the hotel.</t>
+  </si>
+  <si>
+    <t>13:30: Relax and enjoy yourself, and if you want, take a shower in the hotel's public bathroom.</t>
+  </si>
+  <si>
+    <t>14:45: Meet all the group members at the hotel to get ready for Hanoi.</t>
+  </si>
+  <si>
+    <t>15:00: Get on the bus to go back to Hanoi with two rest stops</t>
+  </si>
+  <si>
+    <t>21:00: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends.</t>
+  </si>
+  <si>
+    <t>06:00: Pick up from Hanoi Opera House by local bus.</t>
+  </si>
+  <si>
+    <t>12:00: Arrive our homestay. Check in your room and have lunch.</t>
+  </si>
+  <si>
+    <t>13:30: Take a boat trip to visit Ba Be Lake.</t>
+  </si>
+  <si>
+    <t>14:30: Stop at An Ma Temple and Fairy Pond to learn more about local culture.</t>
+  </si>
+  <si>
+    <t>15:30: Stop at Widow Island for swimming and Kayaking.</t>
+  </si>
+  <si>
+    <t>17:00: Back to homestay. Relax and enjoy the best from our homestay to the rice field and lake.</t>
+  </si>
+  <si>
+    <t>18:30: Have dinner and relax at homestay.</t>
+  </si>
+  <si>
+    <t>08:00: Have breakfast at homestay.</t>
+  </si>
+  <si>
+    <t>08:30: Start trekking to Mo, Lom village of Tay people.</t>
+  </si>
+  <si>
+    <t>12:30: Stop at the Qua village of Tay people for the lunch</t>
+  </si>
+  <si>
+    <t>19:00: Have dinner and overnight at homestay.</t>
+  </si>
+  <si>
+    <t>16:00: Back to homestay or go swimming.</t>
+  </si>
+  <si>
+    <t>13:30: Follow the another road to visit Chay village of Tay people.</t>
+  </si>
+  <si>
+    <t>10:00: Back to homestay. Check out your room.</t>
+  </si>
+  <si>
+    <t>11:30: Have lunch.</t>
+  </si>
+  <si>
+    <t>19:00: Arrive Hanoi Opera House. Tour ends.</t>
+  </si>
+  <si>
+    <t>13:00: Return Hanoi by local bus.</t>
+  </si>
+  <si>
+    <t>07:00: Have breakfast.</t>
+  </si>
+  <si>
+    <t>08:00: Take a bicycle to visit Hua Ma cave. You will have chane to visit a local market near the cave if it opens!</t>
+  </si>
+  <si>
+    <t>10:00: Crossing the Dong Nai River to enter the Cat Tien National Park enables visitors begin their wildlife experience.</t>
+  </si>
+  <si>
+    <t>12:00: Arrive at the Nam Cat Tien National Park.</t>
+  </si>
+  <si>
+    <t>12:30: Have lunch at local restaurant then check in.</t>
+  </si>
+  <si>
+    <t>13:30: Discover vegetation life such as Lagerstroemia Ovalfolia (Bang Lang), , Tetrameles nudiflora (Tung), Cycas rumphii (Thien Tue), Ancistrolandus Tectorius (Trung quan).</t>
+  </si>
+  <si>
+    <t>16:30: Go back to hotel to rest</t>
+  </si>
+  <si>
+    <t>18:00: Have dinner</t>
+  </si>
+  <si>
+    <t>19:00: Our Jeep will transfer us to Ta Lai for view animals at night.</t>
+  </si>
+  <si>
+    <t>08:00: Tour guide and private car pick up at your hotel go to Nam Cat Tien National Park to a former volcanic crater, known as Lava tubes.</t>
+  </si>
+  <si>
+    <t>11:00: Have lunch and check out</t>
+  </si>
+  <si>
+    <t>07:00: Depart to Bau Sau (Crocodile lake) by Jeep (10km) and walking 5km to Crocodile lake station to see the Crocodiles swamp.</t>
+  </si>
+  <si>
+    <t>09:00: Board your boat and paddle around the lake.</t>
+  </si>
+  <si>
+    <t>12:00: Take ferry crossing the river then heading back to Ho Chi Minh city.</t>
+  </si>
+  <si>
+    <t>18:00: Arrive at Ho Chi Minh city.Tour ends.</t>
+  </si>
+  <si>
+    <t>08:00: Your adventure begins as our friendly tour guide picks you up from your hotel in Hanoi.</t>
+  </si>
+  <si>
+    <t>12:00: Arrive at Muong lo valley where you can check-in, freshen up, relax</t>
+  </si>
+  <si>
+    <t>12:30: Have lunch at a local restaurant, where you can savor delicious Vietnamese cuisine and short rest to recharge for the afternoon ahead.</t>
+  </si>
+  <si>
+    <t>15:00: We'll kick off our adventure with an unforgettable bike ride through the captivating Muong Lo Valley. You'll be surrounded by lush greenery, rice fields, and the warm hospitality of the local people.</t>
+  </si>
+  <si>
+    <t>19:30: Dinner will be served, offering you a taste of authentic local dishes. Afterward, take some time to unwind and rest in preparation for another exciting day.</t>
+  </si>
+  <si>
+    <t>07:00: Enjoy a hearty breakfast at the accommodation and prepare for a day full of adventures in Mu Cang Chai.</t>
+  </si>
+  <si>
+    <t>10:30: This morning, we'll embark on a fascinating trekking adventure, heading to the starting point of our day-long journey through Vietnam's treasured rice terraces.</t>
+  </si>
+  <si>
+    <t>12:00: Lunch is included and will be served at a local restaurant, providing you with a chance to refuel and rest during your trekking adventure.</t>
+  </si>
+  <si>
+    <t>16:00: We'll make our way back to our accommodation for check-in and some well-deserved relaxation.</t>
+  </si>
+  <si>
+    <t>18:00: Dinner will be served, allowing you to indulge in more delicious local flavors.</t>
+  </si>
+  <si>
+    <t>08:00: Trek in Mu Cang Chai, this time exploring different charming villages and experiencing the unique way of life of the local inhabitants.</t>
+  </si>
+  <si>
+    <t>12:00:  Enjoy a delightful lunch back at your accommodation, savoring the flavors of the region one last time.</t>
+  </si>
+  <si>
+    <t>13:00:  Bid farewell to Mu Cang Chai as we embark on our journey back to Hanoi.</t>
+  </si>
+  <si>
+    <t>09:00: Arriving at Đông Tằm Island</t>
+  </si>
+  <si>
+    <t>09:30: Coral Reef watching, swing, snorkeling, SUP, kayaking, relax, enjoy sun, fresh air and coral reef with many color, fish, starfish.</t>
+  </si>
+  <si>
+    <t>2:00: Go to Nha Trang beach</t>
+  </si>
+  <si>
+    <t>5:00: Return</t>
+  </si>
+  <si>
+    <t>9:30: Arriving at the village of Quang Phu Cau</t>
+  </si>
+  <si>
+    <t>9:40: Start tour around village</t>
+  </si>
+  <si>
+    <t>9:00: Arrival</t>
+  </si>
+  <si>
+    <t>9:30: Tour start</t>
+  </si>
+  <si>
+    <t>09:00: Guests arrive at Dan Xay reception station.</t>
+  </si>
+  <si>
+    <t>07:30: We will pick you up from your hotel.</t>
+  </si>
+  <si>
+    <t>09:30: Travel by canoe to enjoy the scenic rivers, the typical flora of the Can Gio mangrove forest, and the marine fishing methods of Can Gio fishermen.</t>
+  </si>
+  <si>
+    <t>10:00: Guests will visit the Bat Preservation Zone, the boatmen will guide guests deep into the forest – a naturally picturesque landscape - to visit the bat colony.</t>
+  </si>
+  <si>
+    <t>10:30: A tourist vehicle will take guests to the Bird Sanctuary, With a population of over 20,000 birds from 26 different species.</t>
+  </si>
+  <si>
+    <t>11:00:  Guests will visit a colony of wild long-tailed monkeys, which are playful and yet very friendly to humans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:30: Guests will continue to ascend the 26m high Tang Bồng Tower to admire the panoramic beauty of the mangrove forest nature reserve from above. </t>
+  </si>
+  <si>
+    <t>12:00: Guests will have lunch at the Vam Sat Restaurant.</t>
+  </si>
+  <si>
+    <t>14:00: Canoe takes guests back to the Dan Xay station – The group departs for Saigon</t>
+  </si>
+  <si>
+    <t>16:00: Drop off guests at the hotel.</t>
+  </si>
+  <si>
+    <t>Can Gio, Ho Chi Minh City, Vietnam</t>
+  </si>
+  <si>
+    <t>13:00:  Free time at swimming pool. • Relax or walk around for sight-seeing. • Drop in public seashore (The 30th April Beach) where lots of street snacks and seafood are available.</t>
+  </si>
+  <si>
+    <t>09:00:At Can Gio island: + Visiting heaps of the long – tailed monkeys. + Visiting The Crocodile farm and other wild animals in mangrove forest. + Speed jungle boat, the climax of tour, take you to the Vietnamese base in the war.</t>
+  </si>
+  <si>
+    <t>07:30: Pickup at District 1, HCMC and Depart to Saigon - Can Gio Monkey Island 1 Day Tour</t>
+  </si>
+  <si>
+    <t>16:00: Finish Saigon - Can Gio Monkey Island 1 Day Tour. Return to HCMC</t>
+  </si>
+  <si>
+    <t>18:00: Arrive to HCMC</t>
+  </si>
+  <si>
+    <t>urlImage2</t>
+  </si>
+  <si>
+    <t>urlImage3</t>
+  </si>
+  <si>
+    <t>urlImage1</t>
+  </si>
+  <si>
+    <t>1-1.jpg</t>
+  </si>
+  <si>
+    <t>2-2.jpg</t>
+  </si>
+  <si>
+    <t>3-3.jpg</t>
+  </si>
+  <si>
+    <t>2-1.jpg</t>
+  </si>
+  <si>
+    <t>3-1.jpg</t>
+  </si>
+  <si>
+    <t>4-1.jpg</t>
+  </si>
+  <si>
+    <t>5-1.jpg</t>
+  </si>
+  <si>
+    <t>6-1.jpg</t>
+  </si>
+  <si>
+    <t>7-1.jpg</t>
+  </si>
+  <si>
+    <t>8-1.jpg</t>
+  </si>
+  <si>
+    <t>9-1.jpg</t>
+  </si>
+  <si>
+    <t>10-1.jpg</t>
+  </si>
+  <si>
+    <t>11-1.jpg</t>
+  </si>
+  <si>
+    <t>13-1.jpg</t>
+  </si>
+  <si>
+    <t>14-1.jpg</t>
+  </si>
+  <si>
+    <t>15-1.jpg</t>
+  </si>
+  <si>
+    <t>16-1.jpg</t>
+  </si>
+  <si>
+    <t>17-2.jpg</t>
+  </si>
+  <si>
+    <t>18-2.jpg</t>
+  </si>
+  <si>
+    <t>19-2.jpg</t>
+  </si>
+  <si>
+    <t>21-2.jpg</t>
+  </si>
+  <si>
+    <t>22-2.jpg</t>
+  </si>
+  <si>
+    <t>23-3.jpg</t>
+  </si>
+  <si>
+    <t>24-2.jpg</t>
+  </si>
+  <si>
+    <t>25-3.jpg</t>
+  </si>
+  <si>
+    <t>26-1.jpg</t>
+  </si>
+  <si>
+    <t>27-1.jpg</t>
+  </si>
+  <si>
+    <t>28-1.jpg</t>
+  </si>
+  <si>
+    <t>29-1.jpg</t>
+  </si>
+  <si>
+    <t>30-1.jpg</t>
+  </si>
+  <si>
+    <t>12-1.jpg</t>
+  </si>
+  <si>
+    <t>17-1.jpg</t>
+  </si>
+  <si>
+    <t>18-1.jpg</t>
+  </si>
+  <si>
+    <t>19-1.jpg</t>
+  </si>
+  <si>
+    <t>20-1.jpg</t>
+  </si>
+  <si>
+    <t>21-1.jpg</t>
+  </si>
+  <si>
+    <t>22-1.jpg</t>
+  </si>
+  <si>
+    <t>23-1.jpg</t>
+  </si>
+  <si>
+    <t>24-1.jpg</t>
+  </si>
+  <si>
+    <t>25-1.jpg</t>
+  </si>
+  <si>
+    <t>1-2.jpg</t>
+  </si>
+  <si>
+    <t>3-2.jpg</t>
+  </si>
+  <si>
+    <t>4-2.jpg</t>
+  </si>
+  <si>
+    <t>5-2.jpg</t>
+  </si>
+  <si>
+    <t>6-2.jpg</t>
+  </si>
+  <si>
+    <t>7-2.jpg</t>
+  </si>
+  <si>
+    <t>8-2.jpg</t>
+  </si>
+  <si>
+    <t>9-2.jpg</t>
+  </si>
+  <si>
+    <t>10-2.jpg</t>
+  </si>
+  <si>
+    <t>11-2.jpg</t>
+  </si>
+  <si>
+    <t>12-2.jpg</t>
+  </si>
+  <si>
+    <t>13-2.jpg</t>
+  </si>
+  <si>
+    <t>14-2.jpg</t>
+  </si>
+  <si>
+    <t>15-2.jpg</t>
+  </si>
+  <si>
+    <t>16-2.jpg</t>
+  </si>
+  <si>
+    <t>20-2.jpg</t>
+  </si>
+  <si>
+    <t>23-2.jpg</t>
+  </si>
+  <si>
+    <t>25-2.jpg</t>
+  </si>
+  <si>
+    <t>26-2.jpg</t>
+  </si>
+  <si>
+    <t>27-2.jpg</t>
+  </si>
+  <si>
+    <t>28-2.jpg</t>
+  </si>
+  <si>
+    <t>29-2.jpg</t>
+  </si>
+  <si>
+    <t>30-2.jpg</t>
+  </si>
+  <si>
+    <t>1-3.jpg</t>
+  </si>
+  <si>
+    <t>2-3.jpg</t>
+  </si>
+  <si>
+    <t>4-3.jpg</t>
+  </si>
+  <si>
+    <t>5-3.jpg</t>
+  </si>
+  <si>
+    <t>6-3.jpg</t>
+  </si>
+  <si>
+    <t>7-3.jpg</t>
+  </si>
+  <si>
+    <t>8-3.jpg</t>
+  </si>
+  <si>
+    <t>9-3.jpg</t>
+  </si>
+  <si>
+    <t>10-3.jpg</t>
+  </si>
+  <si>
+    <t>11-3.jpg</t>
+  </si>
+  <si>
+    <t>12-3.jpg</t>
+  </si>
+  <si>
+    <t>13-3.jpg</t>
+  </si>
+  <si>
+    <t>14-3.jpg</t>
+  </si>
+  <si>
+    <t>15-3.jpg</t>
+  </si>
+  <si>
+    <t>16-3.jpg</t>
+  </si>
+  <si>
+    <t>17-3.jpg</t>
+  </si>
+  <si>
+    <t>18-3.jpg</t>
+  </si>
+  <si>
+    <t>19-3.jpg</t>
+  </si>
+  <si>
+    <t>20-3.jpg</t>
+  </si>
+  <si>
+    <t>21-3.jpg</t>
+  </si>
+  <si>
+    <t>22-3.jpg</t>
+  </si>
+  <si>
+    <t>24-3.jpg</t>
+  </si>
+  <si>
+    <t>26-3.jpg</t>
+  </si>
+  <si>
+    <t>27-3.jpg</t>
+  </si>
+  <si>
+    <t>28-3.jpg</t>
+  </si>
+  <si>
+    <t>29-3.jpg</t>
+  </si>
+  <si>
+    <t>30-3.jpg</t>
+  </si>
+  <si>
+    <t>Northern Vietnam</t>
+  </si>
+  <si>
+    <t>Southern Vietnam</t>
+  </si>
+  <si>
+    <t>Central Vietnam</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Quang Ninh</t>
+  </si>
+  <si>
+    <t>Quang Nam</t>
+  </si>
+  <si>
+    <t>Thua Thien Hue</t>
+  </si>
+  <si>
+    <t>Lao Cai</t>
+  </si>
+  <si>
     <t>Can Tho</t>
   </si>
   <si>
-    <t>Can Tho, Vietnam</t>
-  </si>
-  <si>
-    <t>18:30: Have dinner at the hotel/local restaurant.</t>
-  </si>
-  <si>
-    <t>Hotels in Ha Giang city or Ha giang City Area.</t>
-  </si>
-  <si>
-    <t>08:50: Pickup</t>
-  </si>
-  <si>
-    <t>09:00: Lake of the Restored Sword (Hoan Kiem Lake)</t>
-  </si>
-  <si>
-    <t>10:00: Thap Rua Tower</t>
-  </si>
-  <si>
-    <t>10:15: Dong Xuan Market</t>
-  </si>
-  <si>
-    <t>10:45: Bach Ma Temple</t>
-  </si>
-  <si>
-    <t>11:15: Ancient House</t>
-  </si>
-  <si>
-    <t>11:45: Long Bien Bridge</t>
-  </si>
-  <si>
-    <t>12:00: Hanoi Train Street</t>
-  </si>
-  <si>
-    <t>12:30: Old Quarter</t>
-  </si>
-  <si>
-    <t>13:30: Den Quan De</t>
-  </si>
-  <si>
-    <t>14:10: Ba Dinh Square</t>
-  </si>
-  <si>
-    <t>14:40: Ho Chi Minh Mausoleum</t>
-  </si>
-  <si>
-    <t>14:45: St. Joseph's Cathedral</t>
-  </si>
-  <si>
-    <t>15:15: Hoa Lo Prison</t>
-  </si>
-  <si>
-    <t>16:15: Temple of Literature &amp; National University</t>
-  </si>
-  <si>
-    <t>17:15: Vietnam Museum of Ethnology</t>
-  </si>
-  <si>
-    <t>18:15: Vietnamese Women's Museum</t>
-  </si>
-  <si>
-    <t>19:15: Return</t>
-  </si>
-  <si>
-    <t>07:50: Pickup</t>
-  </si>
-  <si>
-    <t>08:00: Old Quarter</t>
-  </si>
-  <si>
-    <t>11:00: Halong Bay</t>
-  </si>
-  <si>
-    <t>16:00: Sung Sot Cave</t>
-  </si>
-  <si>
-    <t>16:30: Ti Top Island</t>
-  </si>
-  <si>
-    <t>17:00: Old Quarter</t>
-  </si>
-  <si>
-    <t>19:00: Return</t>
-  </si>
-  <si>
-    <t>09:00: Asiana Link Travel</t>
-  </si>
-  <si>
-    <t>09:15: The Independence Palace</t>
-  </si>
-  <si>
-    <t>10:00: War Remnants Museum</t>
-  </si>
-  <si>
-    <t>10:30: Central Post Office</t>
-  </si>
-  <si>
-    <t>11:00: Emperor Jade Pagoda</t>
-  </si>
-  <si>
-    <t>11:30: Ben Thanh Market</t>
-  </si>
-  <si>
-    <t>12:00: Return</t>
-  </si>
-  <si>
-    <t>09:00: Cu Chi Tunnels</t>
-  </si>
-  <si>
-    <t>12:00: My Tho</t>
-  </si>
-  <si>
-    <t>15:00: Return</t>
-  </si>
-  <si>
-    <t>09:00: The Marble Mountains</t>
-  </si>
-  <si>
-    <t>10:00: Hoi An Ancient Town</t>
-  </si>
-  <si>
-    <t>13:00: Fukian Assembly Hall (Phuc Kien)</t>
-  </si>
-  <si>
-    <t>13:15: Old House of Tan Ky</t>
-  </si>
-  <si>
-    <t>13:30: Japanese Covered Bridge</t>
-  </si>
-  <si>
-    <t>13:45: Return</t>
-  </si>
-  <si>
-    <t>09:00: Old Quarter</t>
-  </si>
-  <si>
-    <t>09:30: Ancient House</t>
-  </si>
-  <si>
-    <t>10:00: Long Bien Bridge</t>
-  </si>
-  <si>
-    <t>10:35: St. Joseph's Cathedral</t>
-  </si>
-  <si>
-    <t>10:55: Hoa Lo Prison</t>
-  </si>
-  <si>
-    <t>10:40: Return</t>
-  </si>
-  <si>
-    <t>09:00: Hue Imperial City (The Citadel)</t>
-  </si>
-  <si>
-    <t>11:00: Thien Mu Pagoda</t>
-  </si>
-  <si>
-    <t>11:40: Tomb of Minh Mang</t>
-  </si>
-  <si>
-    <t>12:40: Tomb of Khai Dinh</t>
-  </si>
-  <si>
-    <t>13:25: Tomb of Tu Duc</t>
-  </si>
-  <si>
-    <t>14:25: Return</t>
-  </si>
-  <si>
-    <t>09:00: Chua Tran Quoc</t>
-  </si>
-  <si>
-    <t>09:45: West Lake</t>
-  </si>
-  <si>
-    <t>10:00: Ho Chi Minh Mausoleum</t>
-  </si>
-  <si>
-    <t>11:30: Vietnam Museum of Ethnology</t>
-  </si>
-  <si>
-    <t>12:30: Temple of Literature &amp; National University</t>
-  </si>
-  <si>
-    <t>13:30: Dong Xuan Market</t>
-  </si>
-  <si>
-    <t>14:30: Return</t>
-  </si>
-  <si>
-    <t>09:00: My Son Sanctuary</t>
-  </si>
-  <si>
-    <t>10:30: The Marble Mountains</t>
-  </si>
-  <si>
-    <t>12:30: Linh Ung Pagoda</t>
-  </si>
-  <si>
-    <t>13:00: Return</t>
-  </si>
-  <si>
-    <t>09:00: Vietnam Military History Museum</t>
-  </si>
-  <si>
-    <t>11:00: Hoa Lo Prison</t>
-  </si>
-  <si>
-    <t>12:00: Huu Tiep Lake and the Downed B-52</t>
-  </si>
-  <si>
-    <t>12:20: Return</t>
-  </si>
-  <si>
-    <t>09:00: Central Post Office</t>
-  </si>
-  <si>
-    <t>09:30: War Remnants Museum</t>
-  </si>
-  <si>
-    <t>10:00: Saigon Notre Dame Cathedral</t>
-  </si>
-  <si>
-    <t>10:30: Cu Chi Tunnels</t>
-  </si>
-  <si>
-    <t>12:30: Return</t>
-  </si>
-  <si>
-    <t>08:50: Pickup to hotel</t>
-  </si>
-  <si>
-    <t>08:50: Pickup from hotel</t>
-  </si>
-  <si>
-    <t>09:00: Ho Chi Minh Mausoleum</t>
-  </si>
-  <si>
-    <t>09:45: One Pillar Pagoda</t>
-  </si>
-  <si>
-    <t>10:00: Temple of Literature &amp; National University</t>
-  </si>
-  <si>
-    <t>10:45: Vietnam Museum of Ethnology</t>
-  </si>
-  <si>
-    <t>11:30: Lake of the Restored Sword (Hoan Kiem Lake)</t>
-  </si>
-  <si>
-    <t>12:00: Return to hotel</t>
-  </si>
-  <si>
-    <t>09:00: Hoa Lu temples of the Dinh &amp; Le Dynasties</t>
-  </si>
-  <si>
-    <t>09:45: Tam Coc</t>
-  </si>
-  <si>
-    <t>17:15: Transit to Lao Cai</t>
-  </si>
-  <si>
-    <t>08:50: Pickup from Lao Cai station</t>
-  </si>
-  <si>
-    <t>05:30: Pick up from hotel</t>
-  </si>
-  <si>
-    <t>07:30: Enjoy your breakfast and relax at our restaurant while your luggage is arranged</t>
-  </si>
-  <si>
-    <t>08:30: Start 4 hours trekking to Lao Chai Village</t>
-  </si>
-  <si>
-    <t>12:00: Having lunch at a local restaurant before reaching Ta Van village to make friend with a Giáy family homestay.</t>
-  </si>
-  <si>
-    <t>13:30: Be picked up by car to get back to Sa Pa for checking in the hotel.</t>
-  </si>
-  <si>
-    <t>14:00: Free time</t>
-  </si>
-  <si>
-    <t>18:30: Have dinner and overnight  stay at hotel</t>
-  </si>
-  <si>
-    <t>07:50: Pickup from hotel</t>
-  </si>
-  <si>
-    <t>08:00: Have breakfast and start half day trekking through lush rice terraces towards villages, experience Black H’Mong people’s daily life. Visit Cat Cat villages.</t>
-  </si>
-  <si>
-    <t>12:00: Have lunch</t>
-  </si>
-  <si>
-    <t>13:00: Free time</t>
-  </si>
-  <si>
-    <t>17:00: Transfer to Lao Cai station for night train back to Hanoi</t>
-  </si>
-  <si>
-    <t>05:30: Our driver pick up you from Hanoi train station and take you to hotel for breakfast and relax. After breakfast, depart the capital for the drive to Halong Bay.</t>
-  </si>
-  <si>
-    <t>11:00: Arrive to Halong City’s jetty (around noon) and proceed with check-in formalities.</t>
-  </si>
-  <si>
-    <t>12:30: After a welcome onboard, lunch will be served while cruising towards the bay.</t>
-  </si>
-  <si>
-    <t>14:00: Enjoy some sightseeing, on-board activities (depending on each boat’s itinerary) or just spend some time relaxing on the vessel.</t>
-  </si>
-  <si>
-    <t>18:00: Dinner is served on board.</t>
-  </si>
-  <si>
-    <t>05:00: Enjoy a memorable sunrise over the karst formations of Halong Bay.</t>
-  </si>
-  <si>
-    <t>07:00: Enjoy breakfast (brunch on some boats) while the vessels cruises slowly through the magnificent rock formations back towards port.</t>
-  </si>
-  <si>
-    <t>12:00: Arriving at the harbor, you will be picked up for transferring back to Hanoi.</t>
-  </si>
-  <si>
-    <t>16:00: Drop off at your hotel</t>
-  </si>
-  <si>
-    <t>16:30: Free time</t>
-  </si>
-  <si>
-    <t>07:00: Have breakfast</t>
-  </si>
-  <si>
-    <t>08:30: Departure</t>
-  </si>
-  <si>
-    <t>11:00: Return</t>
-  </si>
-  <si>
-    <t>07:30: Get picked up by our friendly guide then depart for Ninh Binh province</t>
-  </si>
-  <si>
-    <t>09:15: Have a short break for 15 – 20 minutes to relax</t>
-  </si>
-  <si>
-    <t>10:30: Visit Hoa Lư ancient capital of Vietnam between 968 and 1010. You have a chance to learn about Vietnamese history in the feudal system under Dinh, Le, and Ly Dynasty</t>
-  </si>
-  <si>
-    <t>11:45: Have a buffet lunch in the restaurant with many local foods such as goat meat, fish, chicken, and fried rice…Vegetarian foods are always available in the buffet lunch</t>
-  </si>
-  <si>
-    <t>13:00: Visit Tam Coc by 1.5-hour bamboo boat. You will be surprised by the charming beauty here with paddy fields, river, water, cloud, sky, and a stunning cave system during the boat trip. All make a masterpiece that the Vietnamese people called “Ha Long Bay on land”</t>
-  </si>
-  <si>
-    <t>14:30: Continue the tour for 45 mins: cycling around the village to discover the life of the local people.</t>
-  </si>
-  <si>
-    <t>15:30: Get back to Limousine Bus then leave for Mua Cave (Dancing Cave). Walk up almost 500 steps, you can reach the top of Lying Dragon Mountain &amp; have an amazing panoramic view of Tam Coc from here </t>
-  </si>
-  <si>
-    <t>16:30: Get on the bus to return to Hanoi</t>
-  </si>
-  <si>
-    <t>18:30: Get dropped off at Hotel in Hanoi</t>
-  </si>
-  <si>
-    <t>05:00: Pickup</t>
-  </si>
-  <si>
-    <t>06:00: Golden Bridge</t>
-  </si>
-  <si>
-    <t>06:40: Ba Na Hills</t>
-  </si>
-  <si>
-    <t>08:40: Ba Na Cable Car</t>
-  </si>
-  <si>
-    <t>09:30: Return</t>
-  </si>
-  <si>
-    <t>10:00: Hoa Lu temples of the Dinh &amp; Le Dynasties</t>
-  </si>
-  <si>
-    <t>11:00: Continue the tour with 30 mins: cycling around the village to discover the life of local people.</t>
-  </si>
-  <si>
-    <t>11:45: Have lunch in the restaurant with a lot of local foods goat meat, fried rice…. Vegetarian foods is always available at the lunch.</t>
-  </si>
-  <si>
-    <t>13:00: Visit Tam Coc by 1.5 hours by bamboo boat. During the boat trip, you will be surprised by the charming beauty here with paddy field, river, water, cloud,sky and stunning cave system.</t>
-  </si>
-  <si>
-    <t>15:00: Climbing up almost 500 steps of Mua cave area, you can reach to the top of Lying Dragon Mountain &amp; have an amazing panoramic view of Tam Coc from here</t>
-  </si>
-  <si>
-    <t>16:00: Get on the bus to return to Hanoi.</t>
-  </si>
-  <si>
-    <t>18:30: Get dropped off at Hotels in Hanoi</t>
-  </si>
-  <si>
-    <t>06:00: Pick up from Hanoi Old Quarter, transfer to the big bus and depart to Sapa Town.</t>
-  </si>
-  <si>
-    <t>09:30: Follow the highway to Lao Cai city with the first comfort break</t>
-  </si>
-  <si>
-    <t>11:00: Second comfort break at Lao Cai city before approaching Sapa</t>
-  </si>
-  <si>
-    <t>13:00: Arrive in Sapa Town with colorful traditional costumes of H’Mong, Dzao, and Tay Ethnic People. The guide will pick up you at the bus station to have lunch at a local restaurant. • Enjoy lunch with local Vietnamese dishes.</t>
-  </si>
-  <si>
-    <t>14:30: Free time</t>
-  </si>
-  <si>
-    <t>18:00: Return to bungalow and have dinner</t>
-  </si>
-  <si>
-    <t>08:45: Trekking to the rice paddies where you have a nice photo session of the amazing surrounding landscapes. A trek through the bamboo forest and stop to have a panorama view of Giang Ta Chai village – home of red Dzao People.</t>
-  </si>
-  <si>
-    <t>11:00: Trek through the Giang Ta Chai Bridge to main road.</t>
-  </si>
-  <si>
-    <t>12.00: Back to the bungalow to shower and prepare for lunch.</t>
-  </si>
-  <si>
-    <t>12:30: Have lunch.</t>
-  </si>
-  <si>
-    <t>13:30: The van or car picks you up to come back to the bus station. They will give you the bus ticket.</t>
-  </si>
-  <si>
-    <t>14:00: You have free time to walk around Sapa Town or go shopping.</t>
-  </si>
-  <si>
-    <t>15:00: Meet all the group members at the bus station to get ready for Hanoi.</t>
-  </si>
-  <si>
-    <t>15:30: Get on the bus to go back to Hanoi with two rest stops.</t>
-  </si>
-  <si>
-    <t>21:30: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends</t>
-  </si>
-  <si>
-    <t>10:00: Arriving in My Tho, enjoy different types of boat trips (motorized boat trip, rowing boat trip) to islands where you can visit local houses, see how they make delicious coconut caramels and enjoy lunch.</t>
-  </si>
-  <si>
-    <t>15:00: Visit Vinh Trang Temple</t>
-  </si>
-  <si>
-    <t>17:00: Take a drive to Can Tho City for your hotel check-in and the night's stay. Overnight in Can Tho City.</t>
-  </si>
-  <si>
-    <t>06:00: Get up very early for breakfast</t>
-  </si>
-  <si>
-    <t>08:00: Catch the amazing and scenic Cai Rang Floating Market, where you can see all the trading activities in Mekong River.</t>
-  </si>
-  <si>
-    <t>14:00: Pay a visit a Vinh Trang Pagoda.</t>
-  </si>
-  <si>
-    <t>06:00: Pick up from the hotel in the Ha Noi Old Quarter.</t>
-  </si>
-  <si>
-    <t>07:15: Depart to Ban Gioc Waterfall – one of the four waterfalls located between 2 countries Vietnam: China, one of the most beautiful waterfalls in the world.</t>
-  </si>
-  <si>
-    <t>12:45: You will have lunch at a local restaurant.</t>
-  </si>
-  <si>
-    <t>13:30: Continue the journey to Ban Gioc Waterfall</t>
-  </si>
-  <si>
-    <t>15:00: Continue the journey to Nguom Ngao Cave</t>
-  </si>
-  <si>
-    <t>16:30: Check-in the hotel and relax.</t>
-  </si>
-  <si>
-    <t>07:00: Have breakfast and check-out</t>
-  </si>
-  <si>
-    <t>08:00: The driver and guide pick you up from the hotel to visit Ban Gioc Pagoda. From here, you can take a magnificent view above of Ban Gioc Waterfall.</t>
-  </si>
-  <si>
-    <t>10:00:  Come back to the car to visit Angle’s Eye Mountain which has a through hole</t>
-  </si>
-  <si>
-    <t>12:00: Have lunch at local restaurant in Quang Uyen District, Cao Bang.</t>
-  </si>
-  <si>
-    <t>13:00:  Get on the bus to come back to Hanoi.</t>
-  </si>
-  <si>
-    <t>18:30: Arrive in Hanoi.</t>
-  </si>
-  <si>
-    <t>06:50: Pick up</t>
-  </si>
-  <si>
-    <t>08:00:  Trip to explore the specific Karst Plateau with a 9-turn pass</t>
-  </si>
-  <si>
-    <t>10:00:  Explore Lung Cam village</t>
-  </si>
-  <si>
-    <t>14:00: Explore Vuong villa of H'Mong King</t>
-  </si>
-  <si>
-    <t>17:00: Arrival Dong Van town</t>
-  </si>
-  <si>
-    <t>18:00: Have dinner with local foods</t>
-  </si>
-  <si>
-    <t>19:00: Enjoy some activities such as a bonfire, local music, karaoke, playing game...</t>
-  </si>
-  <si>
-    <t>06:00: Have breakfast</t>
-  </si>
-  <si>
-    <t>07:00: Starting from Dong Van Town, pass through Pải Lủng Village</t>
-  </si>
-  <si>
-    <t>09:00: Venture into the bamboo forest of Thào Lủng</t>
-  </si>
-  <si>
-    <t>10:00: Continue ascent to Sả Lủng Village, located on high rocky terrain.</t>
-  </si>
-  <si>
-    <t>13:00: Following the hilly path, admire the views of the Nho Quế River, Hẻm Tu Sản, and the majestic Mã Pì Lèng Pass.</t>
-  </si>
-  <si>
-    <t>15:00:  The journey will lead to the "Rocky Cape" and the impressive "White Rock Wall"</t>
-  </si>
-  <si>
-    <t>16:00: Heading back to Dong Van Town to check in at the hotel.</t>
-  </si>
-  <si>
-    <t>19:00: Have dinner in Dong Van Town</t>
-  </si>
-  <si>
-    <t>07:00: Starting from Dong Van Town, go to explore Lung Ho village</t>
-  </si>
-  <si>
-    <t>10:00: Go to explore Mau Due village</t>
-  </si>
-  <si>
-    <t>13:00: Go to explore Meo Vac village</t>
-  </si>
-  <si>
-    <t>16:00: Go to Du Gia village for resting</t>
-  </si>
-  <si>
-    <t>07:00: Starting from Du Gia village, go to explore Lung Tam village</t>
-  </si>
-  <si>
-    <t>09:00: Arriving at Lung Tam village where Mong ethnies live and which has a traditionnal craft of brocade weaving.</t>
-  </si>
-  <si>
-    <t>09:10: Free time</t>
-  </si>
-  <si>
-    <t>08:00: Pick up from the Old Quarter Hanoi</t>
-  </si>
-  <si>
-    <t>12:15: Arrive to dock number 26 Tuan Chau Harbour.</t>
-  </si>
-  <si>
-    <t>12:30: Get transferred to Oasis cruise by tender, enjoy our welcome drink then check in in your cabin.</t>
-  </si>
-  <si>
-    <t>13:15: Have lunch at the cruise dinning area.</t>
-  </si>
-  <si>
-    <t>15:30: The cruise will bring you to the most traquil area of Halong Bay, getting away from the crowd where you can do somersault, backflip, kayak or take a dive. To top off, we also have a giant trampoline and jacuzzi arranged around the cruise.</t>
-  </si>
-  <si>
-    <t>17:30: It is time for the Sunset party where you can buy 02 get 01 drink for free during Happy Hours.</t>
-  </si>
-  <si>
-    <t>19:00: Enjoy delicious food prepared by the best Chef in Ha Long Bay at the cruise dining area.</t>
-  </si>
-  <si>
-    <t>21:00: Onwards Join Oasis cruise night-life activities such as dancing, playing games, or enjoying your drinks in the jacuzzi.</t>
-  </si>
-  <si>
-    <t>06:45: Rise and shine. Do not miss out on the Halong magnificent dawn in the middle of the Bay while having a delicious breakfast.</t>
-  </si>
-  <si>
-    <t>08:40: Check out and settle your bill.</t>
-  </si>
-  <si>
-    <t>10:30: Have brunch at the Cruise dining area.</t>
-  </si>
-  <si>
-    <t>11:30: Arrive to dock number 26 Tuan Chau.</t>
-  </si>
-  <si>
-    <t>12:15: Bus pick up from dock number 26 Tuan Chau.</t>
-  </si>
-  <si>
-    <t>16:00: Arrive in Hanoi Old Quarter.</t>
-  </si>
-  <si>
-    <t>09:30: Follow the highway to Lao Cai city with the first comfort break.</t>
-  </si>
-  <si>
-    <t>11:00: Second comfort break at Lao Cai city before approaching Sapa.</t>
-  </si>
-  <si>
-    <t>13:00: Arrive Sapa Town with colorful traditional costumes of H’mong, Dzao, Tay ethnic People. And the tour guide &amp; driver pick up you at the bus station to Hotel. • Welcome drink and itinerary briefing. • Enjoy the lunch with local Vietnamese dishes, check-in procedures.</t>
-  </si>
-  <si>
-    <t>14:30: A short drive to the gate of Cat Cat village which is home of Black H’mong ethnic people and is located near the bottom of a deep valley at the foot of Fansipan Peak.</t>
-  </si>
-  <si>
-    <t>15:30: Trek down to the valley bottom to the waterfall where the French built a Hydraulic Power Station</t>
-  </si>
-  <si>
-    <t>16:30: Stop for photo with bridge and waterfall then you will walk uphill for bus to pick up to get back to Sapa in the afternoon.</t>
-  </si>
-  <si>
-    <t>17:00: Come back to Sapa Town.</t>
-  </si>
-  <si>
-    <t>19:00: Have dinner and overnight in hotel with night activities.</t>
-  </si>
-  <si>
-    <t>07:30: Have breakfast at the hotel and check-out the hotel</t>
-  </si>
-  <si>
-    <t>08:30: Our driver will take you to Cable Car Station and then you will spend 20 minutes with cable car to enjoy the spectacular scenery.</t>
-  </si>
-  <si>
-    <t>09:00: Reach the altitute of 2800 meters, you have a good time to see the view and take photos, visit pagoda the spiritual destinations.</t>
-  </si>
-  <si>
-    <t>10:30:  Trek up to 600 steps you will reach the peak of Fansipan – the Roof of Indochina.</t>
-  </si>
-  <si>
-    <t>12:00: Come back to Cable Car Station and return to Sapa town.</t>
-  </si>
-  <si>
-    <t>12:30: Have lunch in the hotel.</t>
-  </si>
-  <si>
-    <t>13:30: Relax and enjoy yourself, and if you want, take a shower in the hotel's public bathroom.</t>
-  </si>
-  <si>
-    <t>14:45: Meet all the group members at the hotel to get ready for Hanoi.</t>
-  </si>
-  <si>
-    <t>15:00: Get on the bus to go back to Hanoi with two rest stops</t>
-  </si>
-  <si>
-    <t>21:00: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends.</t>
-  </si>
-  <si>
-    <t>06:00: Pick up from Hanoi Opera House by local bus.</t>
-  </si>
-  <si>
-    <t>12:00: Arrive our homestay. Check in your room and have lunch.</t>
-  </si>
-  <si>
-    <t>13:30: Take a boat trip to visit Ba Be Lake.</t>
-  </si>
-  <si>
-    <t>14:30: Stop at An Ma Temple and Fairy Pond to learn more about local culture.</t>
-  </si>
-  <si>
-    <t>15:30: Stop at Widow Island for swimming and Kayaking.</t>
-  </si>
-  <si>
-    <t>17:00: Back to homestay. Relax and enjoy the best from our homestay to the rice field and lake.</t>
-  </si>
-  <si>
-    <t>18:30: Have dinner and relax at homestay.</t>
-  </si>
-  <si>
-    <t>08:00: Have breakfast at homestay.</t>
-  </si>
-  <si>
-    <t>08:30: Start trekking to Mo, Lom village of Tay people.</t>
-  </si>
-  <si>
-    <t>12:30: Stop at the Qua village of Tay people for the lunch</t>
-  </si>
-  <si>
-    <t>19:00: Have dinner and overnight at homestay.</t>
-  </si>
-  <si>
-    <t>16:00: Back to homestay or go swimming.</t>
-  </si>
-  <si>
-    <t>13:30: Follow the another road to visit Chay village of Tay people.</t>
-  </si>
-  <si>
-    <t>10:00: Back to homestay. Check out your room.</t>
-  </si>
-  <si>
-    <t>11:30: Have lunch.</t>
-  </si>
-  <si>
-    <t>19:00: Arrive Hanoi Opera House. Tour ends.</t>
-  </si>
-  <si>
-    <t>13:00: Return Hanoi by local bus.</t>
-  </si>
-  <si>
-    <t>07:00: Have breakfast.</t>
-  </si>
-  <si>
-    <t>08:00: Take a bicycle to visit Hua Ma cave. You will have chane to visit a local market near the cave if it opens!</t>
-  </si>
-  <si>
-    <t>10:00: Crossing the Dong Nai River to enter the Cat Tien National Park enables visitors begin their wildlife experience.</t>
-  </si>
-  <si>
-    <t>12:00: Arrive at the Nam Cat Tien National Park.</t>
-  </si>
-  <si>
-    <t>12:30: Have lunch at local restaurant then check in.</t>
-  </si>
-  <si>
-    <t>13:30: Discover vegetation life such as Lagerstroemia Ovalfolia (Bang Lang), , Tetrameles nudiflora (Tung), Cycas rumphii (Thien Tue), Ancistrolandus Tectorius (Trung quan).</t>
-  </si>
-  <si>
-    <t>16:30: Go back to hotel to rest</t>
-  </si>
-  <si>
-    <t>18:00: Have dinner</t>
-  </si>
-  <si>
-    <t>19:00: Our Jeep will transfer us to Ta Lai for view animals at night.</t>
-  </si>
-  <si>
-    <t>08:00: Tour guide and private car pick up at your hotel go to Nam Cat Tien National Park to a former volcanic crater, known as Lava tubes.</t>
-  </si>
-  <si>
-    <t>11:00: Have lunch and check out</t>
-  </si>
-  <si>
-    <t>07:00: Depart to Bau Sau (Crocodile lake) by Jeep (10km) and walking 5km to Crocodile lake station to see the Crocodiles swamp.</t>
-  </si>
-  <si>
-    <t>09:00: Board your boat and paddle around the lake.</t>
-  </si>
-  <si>
-    <t>12:00: Take ferry crossing the river then heading back to Ho Chi Minh city.</t>
-  </si>
-  <si>
-    <t>18:00: Arrive at Ho Chi Minh city.Tour ends.</t>
-  </si>
-  <si>
-    <t>Pick up at hotels in hanoi</t>
-  </si>
-  <si>
-    <t>08:00: Your adventure begins as our friendly tour guide picks you up from your hotel in Hanoi.</t>
-  </si>
-  <si>
-    <t>12:00: Arrive at Muong lo valley where you can check-in, freshen up, relax</t>
-  </si>
-  <si>
-    <t>12:30: Have lunch at a local restaurant, where you can savor delicious Vietnamese cuisine and short rest to recharge for the afternoon ahead.</t>
-  </si>
-  <si>
-    <t>15:00: We'll kick off our adventure with an unforgettable bike ride through the captivating Muong Lo Valley. You'll be surrounded by lush greenery, rice fields, and the warm hospitality of the local people.</t>
-  </si>
-  <si>
-    <t>19:30: Dinner will be served, offering you a taste of authentic local dishes. Afterward, take some time to unwind and rest in preparation for another exciting day.</t>
-  </si>
-  <si>
-    <t>07:00: Enjoy a hearty breakfast at the accommodation and prepare for a day full of adventures in Mu Cang Chai.</t>
-  </si>
-  <si>
-    <t>10:30: This morning, we'll embark on a fascinating trekking adventure, heading to the starting point of our day-long journey through Vietnam's treasured rice terraces.</t>
-  </si>
-  <si>
-    <t>12:00: Lunch is included and will be served at a local restaurant, providing you with a chance to refuel and rest during your trekking adventure.</t>
-  </si>
-  <si>
-    <t>16:00: We'll make our way back to our accommodation for check-in and some well-deserved relaxation.</t>
-  </si>
-  <si>
-    <t>18:00: Dinner will be served, allowing you to indulge in more delicious local flavors.</t>
-  </si>
-  <si>
-    <t>08:00: Trek in Mu Cang Chai, this time exploring different charming villages and experiencing the unique way of life of the local inhabitants.</t>
-  </si>
-  <si>
-    <t>12:00:  Enjoy a delightful lunch back at your accommodation, savoring the flavors of the region one last time.</t>
-  </si>
-  <si>
-    <t>13:00:  Bid farewell to Mu Cang Chai as we embark on our journey back to Hanoi.</t>
-  </si>
-  <si>
-    <t>09:00: Arriving at Đông Tằm Island</t>
-  </si>
-  <si>
-    <t>09:30: Coral Reef watching, swing, snorkeling, SUP, kayaking, relax, enjoy sun, fresh air and coral reef with many color, fish, starfish.</t>
-  </si>
-  <si>
-    <t>2:00: Go to Nha Trang beach</t>
-  </si>
-  <si>
-    <t>5:00: Return</t>
-  </si>
-  <si>
-    <t>Hotel pickup in Hanoi</t>
-  </si>
-  <si>
-    <t>9:30: Arriving at the village of Quang Phu Cau</t>
-  </si>
-  <si>
-    <t>9:40: Start tour around village</t>
-  </si>
-  <si>
-    <t>9:00: Arrival</t>
-  </si>
-  <si>
-    <t>9:30: Tour start</t>
-  </si>
-  <si>
-    <t>84N Nguyen Dinh Chieu str, District 1.</t>
-  </si>
-  <si>
-    <t>09:00: Guests arrive at Dan Xay reception station.</t>
-  </si>
-  <si>
-    <t>07:30: We will pick you up from your hotel.</t>
-  </si>
-  <si>
-    <t>09:30: Travel by canoe to enjoy the scenic rivers, the typical flora of the Can Gio mangrove forest, and the marine fishing methods of Can Gio fishermen.</t>
-  </si>
-  <si>
-    <t>10:00: Guests will visit the Bat Preservation Zone, the boatmen will guide guests deep into the forest – a naturally picturesque landscape - to visit the bat colony.</t>
-  </si>
-  <si>
-    <t>10:30: A tourist vehicle will take guests to the Bird Sanctuary, With a population of over 20,000 birds from 26 different species.</t>
-  </si>
-  <si>
-    <t>11:00:  Guests will visit a colony of wild long-tailed monkeys, which are playful and yet very friendly to humans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:30: Guests will continue to ascend the 26m high Tang Bồng Tower to admire the panoramic beauty of the mangrove forest nature reserve from above. </t>
-  </si>
-  <si>
-    <t>12:00: Guests will have lunch at the Vam Sat Restaurant.</t>
-  </si>
-  <si>
-    <t>14:00: Canoe takes guests back to the Dan Xay station – The group departs for Saigon</t>
-  </si>
-  <si>
-    <t>16:00: Drop off guests at the hotel.</t>
-  </si>
-  <si>
-    <t>Can Gio, Ho Chi Minh City, Vietnam</t>
-  </si>
-  <si>
-    <t>13:00:  Free time at swimming pool. • Relax or walk around for sight-seeing. • Drop in public seashore (The 30th April Beach) where lots of street snacks and seafood are available.</t>
-  </si>
-  <si>
-    <t>09:00:At Can Gio island: + Visiting heaps of the long – tailed monkeys. + Visiting The Crocodile farm and other wild animals in mangrove forest. + Speed jungle boat, the climax of tour, take you to the Vietnamese base in the war.</t>
-  </si>
-  <si>
-    <t>07:30: Pickup at District 1, HCMC and Depart to Saigon - Can Gio Monkey Island 1 Day Tour</t>
-  </si>
-  <si>
-    <t>16:00: Finish Saigon - Can Gio Monkey Island 1 Day Tour. Return to HCMC</t>
-  </si>
-  <si>
-    <t>18:00: Arrive to HCMC</t>
-  </si>
-  <si>
-    <t>urlImage2</t>
-  </si>
-  <si>
-    <t>urlImage3</t>
-  </si>
-  <si>
-    <t>urlImage1</t>
-  </si>
-  <si>
-    <t>1-1.jpg</t>
-  </si>
-  <si>
-    <t>2-2.jpg</t>
-  </si>
-  <si>
-    <t>3-3.jpg</t>
-  </si>
-  <si>
-    <t>2-1.jpg</t>
-  </si>
-  <si>
-    <t>3-1.jpg</t>
-  </si>
-  <si>
-    <t>4-1.jpg</t>
-  </si>
-  <si>
-    <t>5-1.jpg</t>
-  </si>
-  <si>
-    <t>6-1.jpg</t>
-  </si>
-  <si>
-    <t>7-1.jpg</t>
-  </si>
-  <si>
-    <t>8-1.jpg</t>
-  </si>
-  <si>
-    <t>9-1.jpg</t>
-  </si>
-  <si>
-    <t>10-1.jpg</t>
-  </si>
-  <si>
-    <t>11-1.jpg</t>
-  </si>
-  <si>
-    <t>13-1.jpg</t>
-  </si>
-  <si>
-    <t>14-1.jpg</t>
-  </si>
-  <si>
-    <t>15-1.jpg</t>
-  </si>
-  <si>
-    <t>16-1.jpg</t>
-  </si>
-  <si>
-    <t>17-2.jpg</t>
-  </si>
-  <si>
-    <t>18-2.jpg</t>
-  </si>
-  <si>
-    <t>19-2.jpg</t>
-  </si>
-  <si>
-    <t>21-2.jpg</t>
-  </si>
-  <si>
-    <t>22-2.jpg</t>
-  </si>
-  <si>
-    <t>23-3.jpg</t>
-  </si>
-  <si>
-    <t>24-2.jpg</t>
-  </si>
-  <si>
-    <t>25-3.jpg</t>
-  </si>
-  <si>
-    <t>26-1.jpg</t>
-  </si>
-  <si>
-    <t>27-1.jpg</t>
-  </si>
-  <si>
-    <t>28-1.jpg</t>
-  </si>
-  <si>
-    <t>29-1.jpg</t>
-  </si>
-  <si>
-    <t>30-1.jpg</t>
-  </si>
-  <si>
-    <t>12-1.jpg</t>
-  </si>
-  <si>
-    <t>17-1.jpg</t>
-  </si>
-  <si>
-    <t>18-1.jpg</t>
-  </si>
-  <si>
-    <t>19-1.jpg</t>
-  </si>
-  <si>
-    <t>20-1.jpg</t>
-  </si>
-  <si>
-    <t>21-1.jpg</t>
-  </si>
-  <si>
-    <t>22-1.jpg</t>
-  </si>
-  <si>
-    <t>23-1.jpg</t>
-  </si>
-  <si>
-    <t>24-1.jpg</t>
-  </si>
-  <si>
-    <t>25-1.jpg</t>
-  </si>
-  <si>
-    <t>1-2.jpg</t>
-  </si>
-  <si>
-    <t>3-2.jpg</t>
-  </si>
-  <si>
-    <t>4-2.jpg</t>
-  </si>
-  <si>
-    <t>5-2.jpg</t>
-  </si>
-  <si>
-    <t>6-2.jpg</t>
-  </si>
-  <si>
-    <t>7-2.jpg</t>
-  </si>
-  <si>
-    <t>8-2.jpg</t>
-  </si>
-  <si>
-    <t>9-2.jpg</t>
-  </si>
-  <si>
-    <t>10-2.jpg</t>
-  </si>
-  <si>
-    <t>11-2.jpg</t>
-  </si>
-  <si>
-    <t>12-2.jpg</t>
-  </si>
-  <si>
-    <t>13-2.jpg</t>
-  </si>
-  <si>
-    <t>14-2.jpg</t>
-  </si>
-  <si>
-    <t>15-2.jpg</t>
-  </si>
-  <si>
-    <t>16-2.jpg</t>
-  </si>
-  <si>
-    <t>20-2.jpg</t>
-  </si>
-  <si>
-    <t>23-2.jpg</t>
-  </si>
-  <si>
-    <t>25-2.jpg</t>
-  </si>
-  <si>
-    <t>26-2.jpg</t>
-  </si>
-  <si>
-    <t>27-2.jpg</t>
-  </si>
-  <si>
-    <t>28-2.jpg</t>
-  </si>
-  <si>
-    <t>29-2.jpg</t>
-  </si>
-  <si>
-    <t>30-2.jpg</t>
-  </si>
-  <si>
-    <t>1-3.jpg</t>
-  </si>
-  <si>
-    <t>2-3.jpg</t>
-  </si>
-  <si>
-    <t>4-3.jpg</t>
-  </si>
-  <si>
-    <t>5-3.jpg</t>
-  </si>
-  <si>
-    <t>6-3.jpg</t>
-  </si>
-  <si>
-    <t>7-3.jpg</t>
-  </si>
-  <si>
-    <t>8-3.jpg</t>
-  </si>
-  <si>
-    <t>9-3.jpg</t>
-  </si>
-  <si>
-    <t>10-3.jpg</t>
-  </si>
-  <si>
-    <t>11-3.jpg</t>
-  </si>
-  <si>
-    <t>12-3.jpg</t>
-  </si>
-  <si>
-    <t>13-3.jpg</t>
-  </si>
-  <si>
-    <t>14-3.jpg</t>
-  </si>
-  <si>
-    <t>15-3.jpg</t>
-  </si>
-  <si>
-    <t>16-3.jpg</t>
-  </si>
-  <si>
-    <t>17-3.jpg</t>
-  </si>
-  <si>
-    <t>18-3.jpg</t>
-  </si>
-  <si>
-    <t>19-3.jpg</t>
-  </si>
-  <si>
-    <t>20-3.jpg</t>
-  </si>
-  <si>
-    <t>21-3.jpg</t>
-  </si>
-  <si>
-    <t>22-3.jpg</t>
-  </si>
-  <si>
-    <t>24-3.jpg</t>
-  </si>
-  <si>
-    <t>26-3.jpg</t>
-  </si>
-  <si>
-    <t>27-3.jpg</t>
-  </si>
-  <si>
-    <t>28-3.jpg</t>
-  </si>
-  <si>
-    <t>29-3.jpg</t>
-  </si>
-  <si>
-    <t>30-3.jpg</t>
-  </si>
-  <si>
-    <t>urlI</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>Cao Bang</t>
+  </si>
+  <si>
+    <t>Ha Giang</t>
+  </si>
+  <si>
+    <t>Bac Kan</t>
+  </si>
+  <si>
+    <t>Dong Nai</t>
+  </si>
+  <si>
+    <t>Yen Bai</t>
+  </si>
+  <si>
+    <t>Khanh Hoa</t>
+  </si>
+  <si>
+    <t>Quang Binh</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1643,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1731,12 +1677,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{0D3FA037-14FD-40E7-871A-AA55F0F64B0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="23" unboundColumnsRight="7">
-    <queryTableFields count="19">
+  <queryTableRefresh nextId="24" unboundColumnsRight="7">
+    <queryTableFields count="20">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
+      <queryTableField id="23" dataBound="0" tableColumnId="12"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
       <queryTableField id="6" name="Column6" tableColumnId="6"/>
       <queryTableField id="7" name="Column7" tableColumnId="7"/>
@@ -1763,40 +1710,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}" name="tour" displayName="tour" ref="A1:S31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S31" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}" name="tour" displayName="tour" ref="A1:T31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T31" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{D53479D9-69E2-4CFF-BE97-1E07BE541AE7}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{C0BCCCE1-1C25-4CAE-9206-37E7254D179B}" uniqueName="2" name="name" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{E00C6AE9-AEAF-464F-B5FE-A3B94B88D9F6}" uniqueName="3" name="description" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{F51F979F-51D5-450E-B820-AE13C92BBEAD}" uniqueName="4" name="destination" queryTableFieldId="4"/>
+    <tableColumn id="12" xr3:uid="{2DE3F84C-5E84-4249-92FF-3B657408862A}" uniqueName="12" name="Province" queryTableFieldId="23"/>
     <tableColumn id="5" xr3:uid="{878A18BD-AEDF-474A-BCD5-253389B5139A}" uniqueName="5" name="region" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{C4C57A40-E270-44C1-8D4E-336B9B498C24}" uniqueName="6" name="duration" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{FC5FD060-4675-4052-A547-E1FBDEAB02C4}" uniqueName="7" name="displayPrice" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{926E9B7D-942A-4FD3-A894-1828AA35DDAA}" uniqueName="8" name="childPrice" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{DF9CD1E2-0B65-43BF-825B-42D488F46CBA}" uniqueName="9" name="adultPrice" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{82D59D23-5DF6-4895-BDFE-9075DFE50E38}" uniqueName="10" name="openTIme" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{82D59D23-5DF6-4895-BDFE-9075DFE50E38}" uniqueName="10" name="openTIme" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{00DBE551-7FC6-49EA-873C-445E1F2BAF1C}" uniqueName="11" name="closeTime" queryTableFieldId="11"/>
     <tableColumn id="15" xr3:uid="{D2B2955E-FE01-4D60-A9ED-458619C4D5BB}" uniqueName="15" name="status" queryTableFieldId="15"/>
     <tableColumn id="17" xr3:uid="{494E1533-74AC-4E95-BE32-2D412523095E}" uniqueName="17" name="pickUp" queryTableFieldId="16"/>
-    <tableColumn id="18" xr3:uid="{8ADE9AF4-D099-41EF-BCDA-137F5A8DBF32}" uniqueName="18" name="dayAmount" queryTableFieldId="17" dataDxfId="6">
+    <tableColumn id="18" xr3:uid="{8ADE9AF4-D099-41EF-BCDA-137F5A8DBF32}" uniqueName="18" name="dayAmount" queryTableFieldId="17" dataDxfId="5">
       <calculatedColumnFormula>tour[[#This Row],[duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C88A4A78-A81D-4AA3-BB60-7AD92D33C23A}" uniqueName="19" name="nightAmount" queryTableFieldId="18" dataDxfId="5">
+    <tableColumn id="19" xr3:uid="{C88A4A78-A81D-4AA3-BB60-7AD92D33C23A}" uniqueName="19" name="nightAmount" queryTableFieldId="18" dataDxfId="4">
       <calculatedColumnFormula>tour[[#This Row],[duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F981E757-6BDB-47D6-A174-C6360AF6AACC}" uniqueName="20" name="durationType" queryTableFieldId="19" dataDxfId="4">
-      <calculatedColumnFormula>IF(F2=1, "single", "multiple")</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{F981E757-6BDB-47D6-A174-C6360AF6AACC}" uniqueName="20" name="durationType" queryTableFieldId="19" dataDxfId="3">
+      <calculatedColumnFormula>IF(G2=1, "single", "multiple")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{685845E3-1A4A-496A-B19C-769A674B4ADC}" uniqueName="13" name="urlImage1" queryTableFieldId="20" dataDxfId="3">
-      <calculatedColumnFormula>CONCATENATE("src/public/imageTour/"&amp;T2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{59ADBFC3-F6F7-4AD1-B50B-CA75F246C402}" uniqueName="14" name="urlImage2" queryTableFieldId="21" dataDxfId="2">
-      <calculatedColumnFormula>CONCATENATE("src/public/imageTour/"&amp;U2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{FB1D2BE2-6BB4-4352-A107-265A1B9EB00A}" uniqueName="16" name="urlImage3" queryTableFieldId="22" dataDxfId="1">
-      <calculatedColumnFormula>CONCATENATE("src/public/imageTour/"&amp;V2)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="13" xr3:uid="{685845E3-1A4A-496A-B19C-769A674B4ADC}" uniqueName="13" name="urlImage1" queryTableFieldId="20" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{59ADBFC3-F6F7-4AD1-B50B-CA75F246C402}" uniqueName="14" name="urlImage2" queryTableFieldId="21" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{FB1D2BE2-6BB4-4352-A107-265A1B9EB00A}" uniqueName="16" name="urlImage3" queryTableFieldId="22" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2099,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539AAB4C-DBE9-4CDE-BC53-E536037E9BC6}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,2299 +2055,2020 @@
     <col min="4" max="4" width="83.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1"/>
-    <col min="14" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.44140625" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="26.21875" customWidth="1"/>
-    <col min="19" max="19" width="28.109375" customWidth="1"/>
+    <col min="10" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" customWidth="1"/>
+    <col min="14" max="14" width="65.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>433</v>
-      </c>
-      <c r="R1" t="s">
-        <v>431</v>
-      </c>
-      <c r="S1" t="s">
-        <v>432</v>
-      </c>
-      <c r="T1" t="s">
-        <v>524</v>
-      </c>
-      <c r="U1" t="s">
-        <v>524</v>
-      </c>
-      <c r="V1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>490</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>500000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>250000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>500000</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>45261</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>44927</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
       <c r="M2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
       </c>
       <c r="O2">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P31" si="0">IF(F2=1, "single", "multiple")</f>
+      <c r="P2">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q31" si="0">IF(G2=1, "single", "multiple")</f>
         <v>single</v>
       </c>
-      <c r="Q2" t="str">
-        <f>CONCATENATE("src/public/imageTour/"&amp;T2)</f>
-        <v>src/public/imageTour/1-1.jpg</v>
-      </c>
-      <c r="R2" t="str">
-        <f>CONCATENATE("src/public/imageTour/"&amp;U2)</f>
-        <v>src/public/imageTour/1-2.jpg</v>
-      </c>
-      <c r="S2" t="str">
-        <f>CONCATENATE("src/public/imageTour/"&amp;V2)</f>
-        <v>src/public/imageTour/1-3.jpg</v>
+      <c r="R2" t="s">
+        <v>400</v>
+      </c>
+      <c r="S2" t="s">
+        <v>440</v>
       </c>
       <c r="T2" t="s">
-        <v>434</v>
-      </c>
-      <c r="U2" t="s">
-        <v>474</v>
-      </c>
-      <c r="V2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>490</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>1125000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>750000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1125000</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>45262</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>44928</v>
       </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
       <c r="M3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
       </c>
       <c r="O3">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P3" t="str">
+      <c r="P3">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:S32" si="1">CONCATENATE("src/public/imageTour/"&amp;T3)</f>
-        <v>src/public/imageTour/2-1.jpg</v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/2-2.jpg</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/2-3.jpg</v>
+      <c r="R3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S3" t="s">
+        <v>401</v>
       </c>
       <c r="T3" t="s">
-        <v>437</v>
-      </c>
-      <c r="U3" t="s">
-        <v>435</v>
-      </c>
-      <c r="V3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="F4" t="s">
+        <v>491</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>450000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>200000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>450000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>45263</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>44929</v>
       </c>
-      <c r="L4" t="s">
-        <v>2</v>
-      </c>
       <c r="M4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>493</v>
       </c>
       <c r="O4">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P4">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/3-1.jpg</v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/3-2.jpg</v>
-      </c>
-      <c r="S4" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/3-3.jpg</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="U4" t="s">
-        <v>475</v>
-      </c>
-      <c r="V4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R4" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" t="s">
+        <v>441</v>
+      </c>
+      <c r="T4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="F5" t="s">
+        <v>491</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>450000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>250000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>450000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>45264</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>44930</v>
       </c>
-      <c r="L5" t="s">
-        <v>2</v>
-      </c>
       <c r="M5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>493</v>
       </c>
       <c r="O5">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P5" t="str">
+      <c r="P5">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/4-1.jpg</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/4-2.jpg</v>
-      </c>
-      <c r="S5" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/4-3.jpg</v>
+      <c r="R5" t="s">
+        <v>405</v>
+      </c>
+      <c r="S5" t="s">
+        <v>442</v>
       </c>
       <c r="T5" t="s">
-        <v>439</v>
-      </c>
-      <c r="U5" t="s">
-        <v>476</v>
-      </c>
-      <c r="V5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="F6" t="s">
+        <v>492</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>500000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>300000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>500000</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>45265</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>44931</v>
       </c>
-      <c r="L6" t="s">
-        <v>2</v>
-      </c>
       <c r="M6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N6">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>494</v>
       </c>
       <c r="O6">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P6" t="str">
+      <c r="P6">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/5-1.jpg</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/5-2.jpg</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/5-3.jpg</v>
+      <c r="R6" t="s">
+        <v>406</v>
+      </c>
+      <c r="S6" t="s">
+        <v>443</v>
       </c>
       <c r="T6" t="s">
-        <v>440</v>
-      </c>
-      <c r="U6" t="s">
-        <v>477</v>
-      </c>
-      <c r="V6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>490</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>150000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>100000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>150000</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>45266</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>44932</v>
       </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
       <c r="M7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
       </c>
       <c r="O7">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/6-1.jpg</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/6-2.jpg</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/6-3.jpg</v>
+      <c r="R7" t="s">
+        <v>407</v>
+      </c>
+      <c r="S7" t="s">
+        <v>444</v>
       </c>
       <c r="T7" t="s">
-        <v>441</v>
-      </c>
-      <c r="U7" t="s">
-        <v>478</v>
-      </c>
-      <c r="V7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>499</v>
+      </c>
+      <c r="F8" t="s">
+        <v>492</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>1500000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>700000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1500000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45267</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44933</v>
       </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
       <c r="M8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>495</v>
       </c>
       <c r="O8">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/7-1.jpg</v>
-      </c>
-      <c r="R8" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/7-2.jpg</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/7-3.jpg</v>
+      <c r="R8" t="s">
+        <v>408</v>
+      </c>
+      <c r="S8" t="s">
+        <v>445</v>
       </c>
       <c r="T8" t="s">
-        <v>442</v>
-      </c>
-      <c r="U8" t="s">
-        <v>479</v>
-      </c>
-      <c r="V8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>490</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>2000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1200000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2000000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45268</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44934</v>
       </c>
-      <c r="L9" t="s">
-        <v>2</v>
-      </c>
       <c r="M9" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
       </c>
       <c r="O9">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P9">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/8-1.jpg</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/8-2.jpg</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/8-3.jpg</v>
+      <c r="R9" t="s">
+        <v>409</v>
+      </c>
+      <c r="S9" t="s">
+        <v>446</v>
       </c>
       <c r="T9" t="s">
-        <v>443</v>
-      </c>
-      <c r="U9" t="s">
-        <v>480</v>
-      </c>
-      <c r="V9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="F10" t="s">
+        <v>492</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>2500000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1200000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2500000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45269</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44935</v>
       </c>
-      <c r="L10" t="s">
-        <v>2</v>
-      </c>
       <c r="M10" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>494</v>
       </c>
       <c r="O10">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/9-1.jpg</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/9-2.jpg</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/9-3.jpg</v>
+      <c r="R10" t="s">
+        <v>410</v>
+      </c>
+      <c r="S10" t="s">
+        <v>447</v>
       </c>
       <c r="T10" t="s">
-        <v>444</v>
-      </c>
-      <c r="U10" t="s">
-        <v>481</v>
-      </c>
-      <c r="V10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>490</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>1800000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1800000</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>45270</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>44936</v>
       </c>
-      <c r="L11" t="s">
-        <v>2</v>
-      </c>
       <c r="M11" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
       </c>
       <c r="O11">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P11">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/10-1.jpg</v>
-      </c>
-      <c r="R11" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/10-2.jpg</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/10-3.jpg</v>
+      <c r="R11" t="s">
+        <v>411</v>
+      </c>
+      <c r="S11" t="s">
+        <v>448</v>
       </c>
       <c r="T11" t="s">
-        <v>445</v>
-      </c>
-      <c r="U11" t="s">
-        <v>482</v>
-      </c>
-      <c r="V11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="F12" t="s">
+        <v>491</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>1800000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1100000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1800000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45271</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>44937</v>
       </c>
-      <c r="L12" t="s">
-        <v>2</v>
-      </c>
       <c r="M12" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>493</v>
       </c>
       <c r="O12">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P12" t="str">
+      <c r="P12">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/11-1.jpg</v>
-      </c>
-      <c r="R12" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/11-2.jpg</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/11-3.jpg</v>
+      <c r="R12" t="s">
+        <v>412</v>
+      </c>
+      <c r="S12" t="s">
+        <v>449</v>
       </c>
       <c r="T12" t="s">
-        <v>446</v>
-      </c>
-      <c r="U12" t="s">
-        <v>483</v>
-      </c>
-      <c r="V12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>490</v>
+      </c>
+      <c r="G13">
         <v>8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>13000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13000000</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>45272</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>44938</v>
       </c>
-      <c r="L13" t="s">
-        <v>2</v>
-      </c>
       <c r="M13" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
       </c>
       <c r="O13">
         <f>tour[[#This Row],[duration]]</f>
         <v>8</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/12-1.jpg</v>
-      </c>
-      <c r="R13" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/12-2.jpg</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/12-3.jpg</v>
+      <c r="R13" t="s">
+        <v>430</v>
+      </c>
+      <c r="S13" t="s">
+        <v>450</v>
       </c>
       <c r="T13" t="s">
-        <v>464</v>
-      </c>
-      <c r="U13" t="s">
-        <v>484</v>
-      </c>
-      <c r="V13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="F14" t="s">
+        <v>492</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>900000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>500000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>900000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>45273</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44939</v>
       </c>
-      <c r="L14" t="s">
-        <v>2</v>
-      </c>
       <c r="M14" t="s">
-        <v>131</v>
-      </c>
-      <c r="N14">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
       </c>
       <c r="O14">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P14" t="str">
+      <c r="P14">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/13-1.jpg</v>
-      </c>
-      <c r="R14" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/13-2.jpg</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/13-3.jpg</v>
+      <c r="R14" t="s">
+        <v>413</v>
+      </c>
+      <c r="S14" t="s">
+        <v>451</v>
       </c>
       <c r="T14" t="s">
-        <v>447</v>
-      </c>
-      <c r="U14" t="s">
-        <v>485</v>
-      </c>
-      <c r="V14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>490</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>1350000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>750000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1350000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>45274</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44940</v>
       </c>
-      <c r="L15" t="s">
-        <v>2</v>
-      </c>
       <c r="M15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
       </c>
       <c r="O15">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P15" t="str">
+      <c r="P15">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/14-1.jpg</v>
-      </c>
-      <c r="R15" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/14-2.jpg</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/14-3.jpg</v>
+      <c r="R15" t="s">
+        <v>414</v>
+      </c>
+      <c r="S15" t="s">
+        <v>452</v>
       </c>
       <c r="T15" t="s">
-        <v>448</v>
-      </c>
-      <c r="U15" t="s">
-        <v>486</v>
-      </c>
-      <c r="V15" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="F16" t="s">
+        <v>492</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>3300000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1800000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3300000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>45275</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>44941</v>
       </c>
-      <c r="L16" t="s">
-        <v>2</v>
-      </c>
       <c r="M16" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
       </c>
       <c r="O16">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P16" t="str">
+      <c r="P16">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/15-1.jpg</v>
-      </c>
-      <c r="R16" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/15-2.jpg</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/15-3.jpg</v>
+      <c r="R16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S16" t="s">
+        <v>453</v>
       </c>
       <c r="T16" t="s">
-        <v>449</v>
-      </c>
-      <c r="U16" t="s">
-        <v>487</v>
-      </c>
-      <c r="V16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>490</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>1500000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>700000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1500000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45276</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44942</v>
       </c>
-      <c r="L17" t="s">
-        <v>2</v>
-      </c>
       <c r="M17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
       </c>
       <c r="O17">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P17" t="str">
+      <c r="P17">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/16-1.jpg</v>
-      </c>
-      <c r="R17" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/16-2.jpg</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/16-3.jpg</v>
+      <c r="R17" t="s">
+        <v>416</v>
+      </c>
+      <c r="S17" t="s">
+        <v>454</v>
       </c>
       <c r="T17" t="s">
-        <v>450</v>
-      </c>
-      <c r="U17" t="s">
-        <v>488</v>
-      </c>
-      <c r="V17" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
+        <v>500</v>
+      </c>
+      <c r="F18" t="s">
+        <v>490</v>
       </c>
       <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>1400000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>870000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1400000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45277</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44943</v>
       </c>
-      <c r="L18" t="s">
-        <v>2</v>
-      </c>
       <c r="M18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18">
         <f>tour[[#This Row],[duration]]</f>
         <v>2</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="str">
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q18" t="str">
-        <f>CONCATENATE("src/public/imageTour/"&amp;T18)</f>
-        <v>src/public/imageTour/17-1.jpg</v>
-      </c>
-      <c r="R18" t="str">
-        <f>CONCATENATE("src/public/imageTour/"&amp;U18)</f>
-        <v>src/public/imageTour/17-2.jpg</v>
-      </c>
-      <c r="S18" t="str">
-        <f>CONCATENATE("src/public/imageTour/"&amp;V18)</f>
-        <v>src/public/imageTour/17-3.jpg</v>
+      <c r="R18" t="s">
+        <v>431</v>
+      </c>
+      <c r="S18" t="s">
+        <v>417</v>
       </c>
       <c r="T18" t="s">
-        <v>465</v>
-      </c>
-      <c r="U18" t="s">
-        <v>451</v>
-      </c>
-      <c r="V18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
+        <v>501</v>
+      </c>
+      <c r="F19" t="s">
+        <v>491</v>
       </c>
       <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>3200000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1200000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3200000</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>45278</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>44944</v>
       </c>
-      <c r="L19" t="s">
-        <v>2</v>
-      </c>
       <c r="M19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>493</v>
       </c>
       <c r="O19">
         <f>tour[[#This Row],[duration]]</f>
         <v>2</v>
       </c>
-      <c r="P19" t="str">
+      <c r="P19">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q19" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/18-1.jpg</v>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/18-2.jpg</v>
-      </c>
-      <c r="S19" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/18-3.jpg</v>
+      <c r="R19" t="s">
+        <v>432</v>
+      </c>
+      <c r="S19" t="s">
+        <v>418</v>
       </c>
       <c r="T19" t="s">
-        <v>466</v>
-      </c>
-      <c r="U19" t="s">
-        <v>452</v>
-      </c>
-      <c r="V19" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
+        <v>502</v>
+      </c>
+      <c r="F20" t="s">
+        <v>490</v>
       </c>
       <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
         <v>4700000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4700000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>45279</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>44945</v>
       </c>
-      <c r="L20" t="s">
-        <v>2</v>
-      </c>
       <c r="M20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20">
         <f>tour[[#This Row],[duration]]</f>
         <v>2</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20" t="str">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/19-1.jpg</v>
-      </c>
-      <c r="R20" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/19-2.jpg</v>
-      </c>
-      <c r="S20" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/19-3.jpg</v>
+      <c r="R20" t="s">
+        <v>433</v>
+      </c>
+      <c r="S20" t="s">
+        <v>419</v>
       </c>
       <c r="T20" t="s">
-        <v>467</v>
-      </c>
-      <c r="U20" t="s">
-        <v>453</v>
-      </c>
-      <c r="V20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21">
+        <v>503</v>
+      </c>
+      <c r="F21" t="s">
+        <v>490</v>
+      </c>
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>7000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3500000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>7000000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>45280</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44946</v>
       </c>
-      <c r="L21" t="s">
-        <v>2</v>
-      </c>
       <c r="M21" t="s">
-        <v>140</v>
-      </c>
-      <c r="N21">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>503</v>
       </c>
       <c r="O21">
         <f>tour[[#This Row],[duration]]</f>
         <v>4</v>
       </c>
-      <c r="P21" t="str">
+      <c r="P21">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>4</v>
+      </c>
+      <c r="Q21" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/20-1.jpg</v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/20-2.jpg</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/20-3.jpg</v>
+      <c r="R21" t="s">
+        <v>434</v>
+      </c>
+      <c r="S21" t="s">
+        <v>455</v>
       </c>
       <c r="T21" t="s">
-        <v>468</v>
-      </c>
-      <c r="U21" t="s">
-        <v>489</v>
-      </c>
-      <c r="V21" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
+        <v>497</v>
+      </c>
+      <c r="F22" t="s">
+        <v>490</v>
       </c>
       <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
         <v>4000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2500000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4000000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45281</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44947</v>
       </c>
-      <c r="L22" t="s">
-        <v>2</v>
-      </c>
       <c r="M22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22">
         <f>tour[[#This Row],[duration]]</f>
         <v>2</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="str">
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/21-1.jpg</v>
-      </c>
-      <c r="R22" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/21-2.jpg</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/21-3.jpg</v>
+      <c r="R22" t="s">
+        <v>435</v>
+      </c>
+      <c r="S22" t="s">
+        <v>420</v>
       </c>
       <c r="T22" t="s">
-        <v>469</v>
-      </c>
-      <c r="U22" t="s">
-        <v>454</v>
-      </c>
-      <c r="V22" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
+        <v>500</v>
+      </c>
+      <c r="F23" t="s">
+        <v>490</v>
       </c>
       <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>4400000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4400000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45282</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44948</v>
       </c>
-      <c r="L23" t="s">
-        <v>2</v>
-      </c>
       <c r="M23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>3</v>
       </c>
       <c r="O23">
         <f>tour[[#This Row],[duration]]</f>
         <v>2</v>
       </c>
-      <c r="P23" t="str">
+      <c r="P23">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q23" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/22-1.jpg</v>
-      </c>
-      <c r="R23" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/22-2.jpg</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/22-3.jpg</v>
+      <c r="R23" t="s">
+        <v>436</v>
+      </c>
+      <c r="S23" t="s">
+        <v>421</v>
       </c>
       <c r="T23" t="s">
-        <v>470</v>
-      </c>
-      <c r="U23" t="s">
-        <v>455</v>
-      </c>
-      <c r="V23" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24">
+        <v>504</v>
+      </c>
+      <c r="F24" t="s">
+        <v>490</v>
+      </c>
+      <c r="G24">
         <v>3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3400000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2100000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3400000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45283</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44949</v>
       </c>
-      <c r="L24" t="s">
-        <v>2</v>
-      </c>
       <c r="M24" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24">
-        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>3</v>
       </c>
       <c r="O24">
         <f>tour[[#This Row],[duration]]</f>
         <v>3</v>
       </c>
-      <c r="P24" t="str">
+      <c r="P24">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>3</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/23-1.jpg</v>
-      </c>
-      <c r="R24" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/23-2.jpg</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/23-3.jpg</v>
+      <c r="R24" t="s">
+        <v>437</v>
+      </c>
+      <c r="S24" t="s">
+        <v>456</v>
       </c>
       <c r="T24" t="s">
-        <v>471</v>
-      </c>
-      <c r="U24" t="s">
-        <v>490</v>
-      </c>
-      <c r="V24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
+        <v>505</v>
+      </c>
+      <c r="F25" t="s">
+        <v>490</v>
       </c>
       <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>9200000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4300000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>9200000</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>45284</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>44950</v>
       </c>
-      <c r="L25" t="s">
-        <v>2</v>
-      </c>
       <c r="M25" t="s">
-        <v>126</v>
-      </c>
-      <c r="N25">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>505</v>
       </c>
       <c r="O25">
         <f>tour[[#This Row],[duration]]</f>
         <v>2</v>
       </c>
-      <c r="P25" t="str">
+      <c r="P25">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q25" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/24-1.jpg</v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/24-2.jpg</v>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/24-3.jpg</v>
+      <c r="R25" t="s">
+        <v>438</v>
+      </c>
+      <c r="S25" t="s">
+        <v>423</v>
       </c>
       <c r="T25" t="s">
-        <v>472</v>
-      </c>
-      <c r="U25" t="s">
-        <v>457</v>
-      </c>
-      <c r="V25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26">
+        <v>506</v>
+      </c>
+      <c r="F26" t="s">
+        <v>490</v>
+      </c>
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1600000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1600000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>45285</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44951</v>
       </c>
-      <c r="L26" t="s">
-        <v>2</v>
-      </c>
       <c r="M26" t="s">
-        <v>391</v>
-      </c>
-      <c r="N26">
-        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>3</v>
       </c>
       <c r="O26">
         <f>tour[[#This Row],[duration]]</f>
         <v>3</v>
       </c>
-      <c r="P26" t="str">
+      <c r="P26">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>3</v>
+      </c>
+      <c r="Q26" t="str">
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/25-1.jpg</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/25-2.jpg</v>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/25-3.jpg</v>
+      <c r="R26" t="s">
+        <v>439</v>
+      </c>
+      <c r="S26" t="s">
+        <v>457</v>
       </c>
       <c r="T26" t="s">
-        <v>473</v>
-      </c>
-      <c r="U26" t="s">
-        <v>491</v>
-      </c>
-      <c r="V26" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>507</v>
+      </c>
+      <c r="F27" t="s">
+        <v>492</v>
       </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>700000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>400000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>700000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45286</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44952</v>
       </c>
-      <c r="L27" t="s">
-        <v>2</v>
-      </c>
       <c r="M27" t="s">
-        <v>126</v>
-      </c>
-      <c r="N27">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>507</v>
       </c>
       <c r="O27">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P27" t="str">
+      <c r="P27">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/26-1.jpg</v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/26-2.jpg</v>
-      </c>
-      <c r="S27" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/26-3.jpg</v>
+      <c r="R27" t="s">
+        <v>425</v>
+      </c>
+      <c r="S27" t="s">
+        <v>458</v>
       </c>
       <c r="T27" t="s">
-        <v>459</v>
-      </c>
-      <c r="U27" t="s">
-        <v>492</v>
-      </c>
-      <c r="V27" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>490</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>3200000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1200000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3200000</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>45287</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>44953</v>
       </c>
-      <c r="L28" t="s">
-        <v>2</v>
-      </c>
       <c r="M28" t="s">
-        <v>409</v>
-      </c>
-      <c r="N28">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3</v>
       </c>
       <c r="O28">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P28" t="str">
+      <c r="P28">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/27-1.jpg</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/27-2.jpg</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/27-3.jpg</v>
+      <c r="R28" t="s">
+        <v>426</v>
+      </c>
+      <c r="S28" t="s">
+        <v>459</v>
       </c>
       <c r="T28" t="s">
-        <v>460</v>
-      </c>
-      <c r="U28" t="s">
-        <v>493</v>
-      </c>
-      <c r="V28" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+        <v>508</v>
+      </c>
+      <c r="F29" t="s">
+        <v>492</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>1900000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1900000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>45288</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>44954</v>
       </c>
-      <c r="L29" t="s">
-        <v>2</v>
-      </c>
       <c r="M29" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>508</v>
       </c>
       <c r="O29">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P29" t="str">
+      <c r="P29">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/28-1.jpg</v>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/28-2.jpg</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/28-3.jpg</v>
+      <c r="R29" t="s">
+        <v>427</v>
+      </c>
+      <c r="S29" t="s">
+        <v>460</v>
       </c>
       <c r="T29" t="s">
-        <v>461</v>
-      </c>
-      <c r="U29" t="s">
-        <v>494</v>
-      </c>
-      <c r="V29" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="F30" t="s">
+        <v>491</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>3200000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1500000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3200000</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>45289</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>44955</v>
       </c>
-      <c r="L30" t="s">
-        <v>2</v>
-      </c>
       <c r="M30" t="s">
-        <v>414</v>
-      </c>
-      <c r="N30">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>493</v>
       </c>
       <c r="O30">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P30" t="str">
+      <c r="P30">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/29-1.jpg</v>
-      </c>
-      <c r="R30" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/29-2.jpg</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/29-3.jpg</v>
+      <c r="R30" t="s">
+        <v>428</v>
+      </c>
+      <c r="S30" t="s">
+        <v>461</v>
       </c>
       <c r="T30" t="s">
-        <v>462</v>
-      </c>
-      <c r="U30" t="s">
-        <v>495</v>
-      </c>
-      <c r="V30" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
+        <v>493</v>
+      </c>
+      <c r="F31" t="s">
+        <v>491</v>
       </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>2900000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1600000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2900000</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>45290</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>44956</v>
       </c>
-      <c r="L31" t="s">
-        <v>2</v>
-      </c>
       <c r="M31" t="s">
-        <v>90</v>
-      </c>
-      <c r="N31">
-        <f>tour[[#This Row],[duration]]</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>493</v>
       </c>
       <c r="O31">
         <f>tour[[#This Row],[duration]]</f>
         <v>1</v>
       </c>
-      <c r="P31" t="str">
+      <c r="P31">
+        <f>tour[[#This Row],[duration]]</f>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="str">
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/30-1.jpg</v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/30-2.jpg</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="1"/>
-        <v>src/public/imageTour/30-3.jpg</v>
+      <c r="R31" t="s">
+        <v>429</v>
+      </c>
+      <c r="S31" t="s">
+        <v>462</v>
       </c>
       <c r="T31" t="s">
-        <v>463</v>
-      </c>
-      <c r="U31" t="s">
-        <v>496</v>
-      </c>
-      <c r="V31" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +4076,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O18 O20" calculatedColumn="1"/>
+    <ignoredError sqref="P18 P20" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4425,7 +4088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89277CC-FE7C-4D0C-A617-F81310558E27}">
   <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A276" workbookViewId="0">
       <selection activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
@@ -4436,13 +4099,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4453,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4464,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4475,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4486,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4497,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4508,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4519,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4530,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4541,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4552,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4563,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4574,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4585,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4596,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4607,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4618,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4629,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4640,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4651,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4662,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4673,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4684,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4695,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4706,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4717,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4728,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4739,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4750,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4761,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4772,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4783,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4794,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4805,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4816,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4827,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4838,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4849,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4860,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4871,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4882,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4893,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4904,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4915,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4926,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4937,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4948,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4959,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4970,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4981,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4992,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5003,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5014,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5025,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5036,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5047,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5058,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5069,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5080,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5091,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -5102,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -5113,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -5124,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -5135,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -5146,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -5157,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -5168,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -5179,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -5190,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -5201,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -5212,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -5223,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -5234,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -5245,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -5256,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -5267,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -5278,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -5289,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -5300,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -5311,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -5322,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -5333,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -5344,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -5355,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -5366,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -5377,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -5388,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -5399,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -5410,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -5421,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -5432,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -5443,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -5454,7 +5117,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -5465,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -5476,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -5487,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -5498,7 +5161,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -5509,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -5520,7 +5183,7 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -5531,7 +5194,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -5542,7 +5205,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -5553,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -5564,7 +5227,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -5575,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -5586,7 +5249,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -5597,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -5608,7 +5271,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -5619,7 +5282,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -5630,7 +5293,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -5641,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -5652,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -5663,7 +5326,7 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -5674,7 +5337,7 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -5685,7 +5348,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -5696,7 +5359,7 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -5707,7 +5370,7 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -5718,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -5729,7 +5392,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -5740,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -5751,7 +5414,7 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -5762,7 +5425,7 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -5773,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -5784,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -5795,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -5806,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -5817,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -5828,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -5839,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -5850,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -5861,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -5872,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -5883,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -5894,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -5905,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -5916,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -5927,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -5938,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -5949,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -5960,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -5971,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -5982,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -5993,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -6004,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -6015,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -6026,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -6037,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -6048,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -6059,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -6070,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -6092,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -6103,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -6114,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -6125,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -6136,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -6147,7 +5810,7 @@
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -6158,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -6169,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -6180,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -6191,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -6202,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -6213,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -6224,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -6235,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -6246,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -6257,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -6268,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -6279,7 +5942,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -6290,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -6301,7 +5964,7 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -6323,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -6334,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -6345,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -6356,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -6367,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -6378,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -6389,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -6400,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -6411,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -6422,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -6433,7 +6096,7 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -6444,7 +6107,7 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -6455,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -6466,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -6477,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -6488,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -6499,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -6510,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -6521,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -6532,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -6543,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -6554,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -6565,7 +6228,7 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -6576,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -6587,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -6598,7 +6261,7 @@
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -6609,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -6620,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -6631,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -6642,7 +6305,7 @@
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -6653,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -6664,7 +6327,7 @@
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -6675,7 +6338,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -6686,7 +6349,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -6697,7 +6360,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -6708,7 +6371,7 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -6719,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -6730,7 +6393,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -6741,7 +6404,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -6752,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -6763,7 +6426,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -6774,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -6785,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -6796,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -6807,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -6818,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -6829,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -6840,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -6851,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -6862,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -6873,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -6884,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -6895,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="C224" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -6906,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -6917,7 +6580,7 @@
         <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -6928,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -6939,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -6950,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -6961,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -6972,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -6983,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -6994,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -7005,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -7016,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -7027,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -7038,7 +6701,7 @@
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -7049,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -7060,7 +6723,7 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -7071,7 +6734,7 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -7082,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -7093,7 +6756,7 @@
         <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -7104,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -7115,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -7126,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -7137,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -7148,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -7159,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -7170,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -7181,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -7192,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -7203,7 +6866,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -7214,7 +6877,7 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -7225,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -7236,7 +6899,7 @@
         <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -7247,7 +6910,7 @@
         <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -7258,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -7269,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -7280,7 +6943,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -7291,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -7302,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -7313,7 +6976,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -7324,7 +6987,7 @@
         <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -7335,7 +6998,7 @@
         <v>3</v>
       </c>
       <c r="C264" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -7346,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -7357,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -7368,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -7379,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -7390,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -7401,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -7412,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -7423,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -7434,7 +7097,7 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -7445,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="C274" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -7456,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -7467,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -7478,7 +7141,7 @@
         <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -7489,7 +7152,7 @@
         <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -7500,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -7511,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -7522,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -7533,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -7544,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -7555,7 +7218,7 @@
         <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -7566,7 +7229,7 @@
         <v>2</v>
       </c>
       <c r="C285" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -7577,7 +7240,7 @@
         <v>2</v>
       </c>
       <c r="C286" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -7588,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="C287" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -7599,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -7610,7 +7273,7 @@
         <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -7621,7 +7284,7 @@
         <v>3</v>
       </c>
       <c r="C290" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -7632,7 +7295,7 @@
         <v>3</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -7643,7 +7306,7 @@
         <v>3</v>
       </c>
       <c r="C292" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -7654,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -7665,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -7676,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -7687,7 +7350,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -7698,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -7709,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -7720,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -7731,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -7742,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -7753,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -7764,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -7775,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -7786,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -7797,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -7808,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -7819,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -7830,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -7841,7 +7504,7 @@
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -7852,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -7863,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -7874,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -7885,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -7896,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -7907,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -7918,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -7929,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -7940,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -7951,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="C320" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -7962,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -7973,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -7984,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/sampleData/tour.xlsx
+++ b/sampleData/tour.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\project_capsure\n.05-docker-mongo\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E56390D-A4FE-4A14-A4B7-F31933AF6CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89841A58-A31D-4B65-A9F3-01645EE698DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{411CAE02-2DFB-4ACC-A9DF-9214D5D1CA1A}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="512">
   <si>
     <t>28 Vo Van Tan Ward 6, District 3, Ho Chi Minh City, Vietnam</t>
   </si>
@@ -1590,6 +1590,15 @@
   </si>
   <si>
     <t>Quang Binh</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1652,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1677,8 +1689,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{0D3FA037-14FD-40E7-871A-AA55F0F64B0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="24" unboundColumnsRight="7">
-    <queryTableFields count="20">
+  <queryTableRefresh nextId="27" unboundColumnsRight="10">
+    <queryTableFields count="23">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
@@ -1696,6 +1708,9 @@
       <queryTableField id="17" dataBound="0" tableColumnId="18"/>
       <queryTableField id="18" dataBound="0" tableColumnId="19"/>
       <queryTableField id="19" dataBound="0" tableColumnId="20"/>
+      <queryTableField id="26" dataBound="0" tableColumnId="21"/>
+      <queryTableField id="25" dataBound="0" tableColumnId="22"/>
+      <queryTableField id="24" dataBound="0" tableColumnId="23"/>
       <queryTableField id="20" dataBound="0" tableColumnId="13"/>
       <queryTableField id="21" dataBound="0" tableColumnId="14"/>
       <queryTableField id="22" dataBound="0" tableColumnId="16"/>
@@ -1710,9 +1725,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}" name="tour" displayName="tour" ref="A1:T31" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T31" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}" name="tour" displayName="tour" ref="A1:W31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W31" xr:uid="{A60054BB-E114-4BC3-B6F8-6E77BFAEB775}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{D53479D9-69E2-4CFF-BE97-1E07BE541AE7}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{C0BCCCE1-1C25-4CAE-9206-37E7254D179B}" uniqueName="2" name="name" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{E00C6AE9-AEAF-464F-B5FE-A3B94B88D9F6}" uniqueName="3" name="description" queryTableFieldId="3"/>
@@ -1727,18 +1742,27 @@
     <tableColumn id="11" xr3:uid="{00DBE551-7FC6-49EA-873C-445E1F2BAF1C}" uniqueName="11" name="closeTime" queryTableFieldId="11"/>
     <tableColumn id="15" xr3:uid="{D2B2955E-FE01-4D60-A9ED-458619C4D5BB}" uniqueName="15" name="status" queryTableFieldId="15"/>
     <tableColumn id="17" xr3:uid="{494E1533-74AC-4E95-BE32-2D412523095E}" uniqueName="17" name="pickUp" queryTableFieldId="16"/>
-    <tableColumn id="18" xr3:uid="{8ADE9AF4-D099-41EF-BCDA-137F5A8DBF32}" uniqueName="18" name="dayAmount" queryTableFieldId="17" dataDxfId="5">
+    <tableColumn id="18" xr3:uid="{8ADE9AF4-D099-41EF-BCDA-137F5A8DBF32}" uniqueName="18" name="dayAmount" queryTableFieldId="17" dataDxfId="6">
       <calculatedColumnFormula>tour[[#This Row],[duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C88A4A78-A81D-4AA3-BB60-7AD92D33C23A}" uniqueName="19" name="nightAmount" queryTableFieldId="18" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{C88A4A78-A81D-4AA3-BB60-7AD92D33C23A}" uniqueName="19" name="nightAmount" queryTableFieldId="18" dataDxfId="5">
       <calculatedColumnFormula>tour[[#This Row],[duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F981E757-6BDB-47D6-A174-C6360AF6AACC}" uniqueName="20" name="durationType" queryTableFieldId="19" dataDxfId="3">
+    <tableColumn id="20" xr3:uid="{F981E757-6BDB-47D6-A174-C6360AF6AACC}" uniqueName="20" name="durationType" queryTableFieldId="19" dataDxfId="4">
       <calculatedColumnFormula>IF(G2=1, "single", "multiple")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{685845E3-1A4A-496A-B19C-769A674B4ADC}" uniqueName="13" name="urlImage1" queryTableFieldId="20" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{59ADBFC3-F6F7-4AD1-B50B-CA75F246C402}" uniqueName="14" name="urlImage2" queryTableFieldId="21" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{FB1D2BE2-6BB4-4352-A107-265A1B9EB00A}" uniqueName="16" name="urlImage3" queryTableFieldId="22" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{AD23F3D7-B0AE-4EBD-98BD-F87C799A11E4}" uniqueName="21" name="urlImage1" queryTableFieldId="26" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{004A9DEF-6C9E-43D9-841C-6A97F3FA3CBC}" uniqueName="22" name="urlImage2" queryTableFieldId="25">
+      <calculatedColumnFormula>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{B4A09390-D1BE-4A79-963E-864BE0EF5A98}" uniqueName="23" name="urlImage3" queryTableFieldId="24">
+      <calculatedColumnFormula>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{685845E3-1A4A-496A-B19C-769A674B4ADC}" uniqueName="13" name="Column1" queryTableFieldId="20" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{59ADBFC3-F6F7-4AD1-B50B-CA75F246C402}" uniqueName="14" name="Column2" queryTableFieldId="21" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{FB1D2BE2-6BB4-4352-A107-265A1B9EB00A}" uniqueName="16" name="Column3" queryTableFieldId="22" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2041,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539AAB4C-DBE9-4CDE-BC53-E536037E9BC6}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2060,9 +2084,12 @@
     <col min="14" max="14" width="65.88671875" customWidth="1"/>
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" customWidth="1"/>
+    <col min="18" max="18" width="35.109375" customWidth="1"/>
+    <col min="19" max="19" width="32.21875" customWidth="1"/>
+    <col min="20" max="20" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2123,8 +2150,17 @@
       <c r="T1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>509</v>
+      </c>
+      <c r="V1" t="s">
+        <v>510</v>
+      </c>
+      <c r="W1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2179,17 +2215,29 @@
         <f t="shared" ref="Q2:Q31" si="0">IF(G2=1, "single", "multiple")</f>
         <v>single</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/1-1.jpg</v>
+      </c>
+      <c r="S2" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/1-2.jpg</v>
+      </c>
+      <c r="T2" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/1-3.jpg</v>
+      </c>
+      <c r="U2" t="s">
         <v>400</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>440</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2244,17 +2292,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/2-1.jpg</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/2-2.jpg</v>
+      </c>
+      <c r="T3" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/2-3.jpg</v>
+      </c>
+      <c r="U3" t="s">
         <v>403</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>401</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2309,17 +2369,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/3-1.jpg</v>
+      </c>
+      <c r="S4" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/3-2.jpg</v>
+      </c>
+      <c r="T4" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/3-3.jpg</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>441</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2374,17 +2446,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/4-1.jpg</v>
+      </c>
+      <c r="S5" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/4-2.jpg</v>
+      </c>
+      <c r="T5" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/4-3.jpg</v>
+      </c>
+      <c r="U5" t="s">
         <v>405</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>442</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2439,17 +2523,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/5-1.jpg</v>
+      </c>
+      <c r="S6" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/5-2.jpg</v>
+      </c>
+      <c r="T6" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/5-3.jpg</v>
+      </c>
+      <c r="U6" t="s">
         <v>406</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>443</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2504,17 +2600,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/6-1.jpg</v>
+      </c>
+      <c r="S7" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/6-2.jpg</v>
+      </c>
+      <c r="T7" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/6-3.jpg</v>
+      </c>
+      <c r="U7" t="s">
         <v>407</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>444</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2569,17 +2677,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/7-1.jpg</v>
+      </c>
+      <c r="S8" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/7-2.jpg</v>
+      </c>
+      <c r="T8" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/7-3.jpg</v>
+      </c>
+      <c r="U8" t="s">
         <v>408</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>445</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2634,17 +2754,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/8-1.jpg</v>
+      </c>
+      <c r="S9" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/8-2.jpg</v>
+      </c>
+      <c r="T9" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/8-3.jpg</v>
+      </c>
+      <c r="U9" t="s">
         <v>409</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>446</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2699,17 +2831,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/9-1.jpg</v>
+      </c>
+      <c r="S10" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/9-2.jpg</v>
+      </c>
+      <c r="T10" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/9-3.jpg</v>
+      </c>
+      <c r="U10" t="s">
         <v>410</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>447</v>
       </c>
-      <c r="T10" t="s">
+      <c r="W10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2764,17 +2908,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/10-1.jpg</v>
+      </c>
+      <c r="S11" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/10-2.jpg</v>
+      </c>
+      <c r="T11" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/10-3.jpg</v>
+      </c>
+      <c r="U11" t="s">
         <v>411</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>448</v>
       </c>
-      <c r="T11" t="s">
+      <c r="W11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2829,17 +2985,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/11-1.jpg</v>
+      </c>
+      <c r="S12" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/11-2.jpg</v>
+      </c>
+      <c r="T12" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/11-3.jpg</v>
+      </c>
+      <c r="U12" t="s">
         <v>412</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>449</v>
       </c>
-      <c r="T12" t="s">
+      <c r="W12" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2894,17 +3062,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/12-1.jpg</v>
+      </c>
+      <c r="S13" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/12-2.jpg</v>
+      </c>
+      <c r="T13" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/12-3.jpg</v>
+      </c>
+      <c r="U13" t="s">
         <v>430</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>450</v>
       </c>
-      <c r="T13" t="s">
+      <c r="W13" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2959,17 +3139,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/13-1.jpg</v>
+      </c>
+      <c r="S14" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/13-2.jpg</v>
+      </c>
+      <c r="T14" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/13-3.jpg</v>
+      </c>
+      <c r="U14" t="s">
         <v>413</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>451</v>
       </c>
-      <c r="T14" t="s">
+      <c r="W14" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3024,17 +3216,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/14-1.jpg</v>
+      </c>
+      <c r="S15" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/14-2.jpg</v>
+      </c>
+      <c r="T15" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/14-3.jpg</v>
+      </c>
+      <c r="U15" t="s">
         <v>414</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>452</v>
       </c>
-      <c r="T15" t="s">
+      <c r="W15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3089,17 +3293,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/15-1.jpg</v>
+      </c>
+      <c r="S16" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/15-2.jpg</v>
+      </c>
+      <c r="T16" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/15-3.jpg</v>
+      </c>
+      <c r="U16" t="s">
         <v>415</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>453</v>
       </c>
-      <c r="T16" t="s">
+      <c r="W16" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3154,17 +3370,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/16-1.jpg</v>
+      </c>
+      <c r="S17" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/16-2.jpg</v>
+      </c>
+      <c r="T17" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/16-3.jpg</v>
+      </c>
+      <c r="U17" t="s">
         <v>416</v>
       </c>
-      <c r="S17" t="s">
+      <c r="V17" t="s">
         <v>454</v>
       </c>
-      <c r="T17" t="s">
+      <c r="W17" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3218,17 +3446,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/17-1.jpg</v>
+      </c>
+      <c r="S18" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/17-2.jpg</v>
+      </c>
+      <c r="T18" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/17-3.jpg</v>
+      </c>
+      <c r="U18" t="s">
         <v>431</v>
       </c>
-      <c r="S18" t="s">
+      <c r="V18" t="s">
         <v>417</v>
       </c>
-      <c r="T18" t="s">
+      <c r="W18" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3283,17 +3523,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/18-1.jpg</v>
+      </c>
+      <c r="S19" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/18-2.jpg</v>
+      </c>
+      <c r="T19" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/18-3.jpg</v>
+      </c>
+      <c r="U19" t="s">
         <v>432</v>
       </c>
-      <c r="S19" t="s">
+      <c r="V19" t="s">
         <v>418</v>
       </c>
-      <c r="T19" t="s">
+      <c r="W19" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3347,17 +3599,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/19-1.jpg</v>
+      </c>
+      <c r="S20" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/19-2.jpg</v>
+      </c>
+      <c r="T20" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/19-3.jpg</v>
+      </c>
+      <c r="U20" t="s">
         <v>433</v>
       </c>
-      <c r="S20" t="s">
+      <c r="V20" t="s">
         <v>419</v>
       </c>
-      <c r="T20" t="s">
+      <c r="W20" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3412,17 +3676,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/20-1.jpg</v>
+      </c>
+      <c r="S21" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/20-2.jpg</v>
+      </c>
+      <c r="T21" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/20-3.jpg</v>
+      </c>
+      <c r="U21" t="s">
         <v>434</v>
       </c>
-      <c r="S21" t="s">
+      <c r="V21" t="s">
         <v>455</v>
       </c>
-      <c r="T21" t="s">
+      <c r="W21" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3476,17 +3752,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/21-1.jpg</v>
+      </c>
+      <c r="S22" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/21-2.jpg</v>
+      </c>
+      <c r="T22" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/21-3.jpg</v>
+      </c>
+      <c r="U22" t="s">
         <v>435</v>
       </c>
-      <c r="S22" t="s">
+      <c r="V22" t="s">
         <v>420</v>
       </c>
-      <c r="T22" t="s">
+      <c r="W22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3541,17 +3829,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/22-1.jpg</v>
+      </c>
+      <c r="S23" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/22-2.jpg</v>
+      </c>
+      <c r="T23" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/22-3.jpg</v>
+      </c>
+      <c r="U23" t="s">
         <v>436</v>
       </c>
-      <c r="S23" t="s">
+      <c r="V23" t="s">
         <v>421</v>
       </c>
-      <c r="T23" t="s">
+      <c r="W23" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3606,17 +3906,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/23-1.jpg</v>
+      </c>
+      <c r="S24" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/23-2.jpg</v>
+      </c>
+      <c r="T24" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/23-3.jpg</v>
+      </c>
+      <c r="U24" t="s">
         <v>437</v>
       </c>
-      <c r="S24" t="s">
+      <c r="V24" t="s">
         <v>456</v>
       </c>
-      <c r="T24" t="s">
+      <c r="W24" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3671,17 +3983,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/24-1.jpg</v>
+      </c>
+      <c r="S25" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/24-2.jpg</v>
+      </c>
+      <c r="T25" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/24-3.jpg</v>
+      </c>
+      <c r="U25" t="s">
         <v>438</v>
       </c>
-      <c r="S25" t="s">
+      <c r="V25" t="s">
         <v>423</v>
       </c>
-      <c r="T25" t="s">
+      <c r="W25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3736,17 +4060,29 @@
         <f t="shared" si="0"/>
         <v>multiple</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/25-1.jpg</v>
+      </c>
+      <c r="S26" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/25-2.jpg</v>
+      </c>
+      <c r="T26" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/25-3.jpg</v>
+      </c>
+      <c r="U26" t="s">
         <v>439</v>
       </c>
-      <c r="S26" t="s">
+      <c r="V26" t="s">
         <v>457</v>
       </c>
-      <c r="T26" t="s">
+      <c r="W26" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3801,17 +4137,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/26-1.jpg</v>
+      </c>
+      <c r="S27" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/26-2.jpg</v>
+      </c>
+      <c r="T27" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/26-3.jpg</v>
+      </c>
+      <c r="U27" t="s">
         <v>425</v>
       </c>
-      <c r="S27" t="s">
+      <c r="V27" t="s">
         <v>458</v>
       </c>
-      <c r="T27" t="s">
+      <c r="W27" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3866,17 +4214,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/27-1.jpg</v>
+      </c>
+      <c r="S28" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/27-2.jpg</v>
+      </c>
+      <c r="T28" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/27-3.jpg</v>
+      </c>
+      <c r="U28" t="s">
         <v>426</v>
       </c>
-      <c r="S28" t="s">
+      <c r="V28" t="s">
         <v>459</v>
       </c>
-      <c r="T28" t="s">
+      <c r="W28" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3931,17 +4291,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/28-1.jpg</v>
+      </c>
+      <c r="S29" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/28-2.jpg</v>
+      </c>
+      <c r="T29" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/28-3.jpg</v>
+      </c>
+      <c r="U29" t="s">
         <v>427</v>
       </c>
-      <c r="S29" t="s">
+      <c r="V29" t="s">
         <v>460</v>
       </c>
-      <c r="T29" t="s">
+      <c r="W29" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3996,17 +4368,29 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/29-1.jpg</v>
+      </c>
+      <c r="S30" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/29-2.jpg</v>
+      </c>
+      <c r="T30" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/29-3.jpg</v>
+      </c>
+      <c r="U30" t="s">
         <v>428</v>
       </c>
-      <c r="S30" t="s">
+      <c r="V30" t="s">
         <v>461</v>
       </c>
-      <c r="T30" t="s">
+      <c r="W30" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4061,13 +4445,25 @@
         <f t="shared" si="0"/>
         <v>single</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column1]])</f>
+        <v>src/public/imageTour/30-1.jpg</v>
+      </c>
+      <c r="S31" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column2]])</f>
+        <v>src/public/imageTour/30-2.jpg</v>
+      </c>
+      <c r="T31" t="str">
+        <f>CONCATENATE("src/public/imageTour/"&amp;tour[[#This Row],[Column3]])</f>
+        <v>src/public/imageTour/30-3.jpg</v>
+      </c>
+      <c r="U31" t="s">
         <v>429</v>
       </c>
-      <c r="S31" t="s">
+      <c r="V31" t="s">
         <v>462</v>
       </c>
-      <c r="T31" t="s">
+      <c r="W31" t="s">
         <v>489</v>
       </c>
     </row>

--- a/sampleData/tour.xlsx
+++ b/sampleData/tour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\project_capsure\n.05-docker-mongo\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC531B-AE50-4E8C-B116-404C2D910D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2833A5-A887-4336-9068-FE31099E89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{411CAE02-2DFB-4ACC-A9DF-9214D5D1CA1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{411CAE02-2DFB-4ACC-A9DF-9214D5D1CA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="tour" sheetId="4" r:id="rId1"/>
@@ -1885,7 +1885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2398,10 +2398,10 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
@@ -2419,7 +2419,7 @@
     <col min="20" max="20" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>568</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>575</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>569</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>572</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>573</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>570</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>571</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>578</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>593</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>592</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>579</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>577</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>574</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>580</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>582</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>581</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>586</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>583</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>584</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>585</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>586</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>587</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>588</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>596</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>591</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>589</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>595</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>594</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>590</v>
       </c>
@@ -4992,14 +4992,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="108" customWidth="1"/>
     <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="6" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>19:15: Return</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>12:00: Return</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>15:00: Return</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>13:45: Return</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>10:40: Return</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>14:25: Return</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>14:30: Return</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>13:00: Return</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>12:20: Return</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>12:30: Return</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>08:50: Pickup to hotel</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>11:00: Return</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>18:30: Get dropped off at Hotel in Hanoi</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>09:30: Return</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>18:30: Get dropped off at Hotels in Hanoi</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>18:00: Return to bungalow and have dinner</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>17:00: Take a drive to Can Tho City for your hotel check-in and the night's stay. Overnight in Can Tho City.</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>18:30: Have dinner at the hotel/local restaurant.</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>19:00: Enjoy some activities such as a bonfire, local music, karaoke, playing game...</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>21:00: Onwards Join Oasis cruise night-life activities such as dancing, playing games, or enjoying your drinks in the jacuzzi.</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>19:00: Have dinner and overnight in hotel with night activities.</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>18:30: Have dinner and relax at homestay.</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>19:00: Our Jeep will transfer us to Ta Lai for view animals at night.</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>19:30: Dinner will be served, offering you a taste of authentic local dishes. Afterward, take some time to unwind and rest in preparation for another exciting day.</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>5:00: Return</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>3</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>13:00: Return</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>3</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>14:30: Return</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>16:00: Drop off guests at the hotel.</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>3</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>18:00: Arrive to HCMC</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6218,7 +6218,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>4</v>
       </c>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>4</v>
       </c>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>5</v>
       </c>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>5</v>
       </c>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>5</v>
       </c>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>5</v>
       </c>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>12:00: Return to hotel</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>5</v>
       </c>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>5</v>
       </c>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>6</v>
       </c>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>6</v>
       </c>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>6</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>21:30: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>6</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>15:00: Return</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>6</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>18:30: Arrive in Hanoi.</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>6</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>19:00: Have dinner in Dong Van Town</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>6</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>16:00: Arrive in Hanoi Old Quarter.</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>6</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>21:00: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends.</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>7</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>19:00: Have dinner and overnight at homestay.</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>7</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>18:00: Arrive at Ho Chi Minh city.Tour ends.</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>7</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>18:00: Dinner will be served, allowing you to indulge in more delicious local flavors.</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>7</v>
       </c>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>7</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>7</v>
       </c>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>7</v>
       </c>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>8</v>
       </c>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>8</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>8</v>
       </c>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>8</v>
       </c>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>8</v>
       </c>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>8</v>
       </c>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>8</v>
       </c>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>8</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>9</v>
       </c>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>9</v>
       </c>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>9</v>
       </c>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>9</v>
       </c>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>9</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>17:15: Transit to Lao Cai</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>10</v>
       </c>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>10</v>
       </c>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>10</v>
       </c>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>10</v>
       </c>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>10</v>
       </c>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>11</v>
       </c>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>11</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>11</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>16:00: Go to Du Gia village for resting</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>11</v>
       </c>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>11</v>
       </c>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>11</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>19:00: Arrive Hanoi Opera House. Tour ends.</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>12</v>
       </c>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>12</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>13:00:  Bid farewell to Mu Cang Chai as we embark on our journey back to Hanoi.</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>12</v>
       </c>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>12</v>
       </c>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>12</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>12</v>
       </c>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>12</v>
       </c>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>12</v>
       </c>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>12</v>
       </c>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>12</v>
       </c>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>12</v>
       </c>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>12</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>12</v>
       </c>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>12</v>
       </c>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>12</v>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>12</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>12</v>
       </c>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>12</v>
       </c>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>12</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>18:30: Have dinner and overnight  stay at hotel</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>12</v>
       </c>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>12</v>
       </c>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>12</v>
       </c>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>12</v>
       </c>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>12</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>12</v>
       </c>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>12</v>
       </c>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>12</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>13:00: Return</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>12</v>
       </c>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>12</v>
       </c>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>12</v>
       </c>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>12</v>
       </c>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>12</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>12</v>
       </c>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>12</v>
       </c>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>12</v>
       </c>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>12</v>
       </c>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>12</v>
       </c>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>13</v>
       </c>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>13</v>
       </c>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>13</v>
       </c>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>14</v>
       </c>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>14</v>
       </c>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>14</v>
       </c>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>14</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>14</v>
       </c>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>14</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>14</v>
       </c>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>14</v>
       </c>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>14</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>17:00: Transfer to Lao Cai station for night train back to Hanoi</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>15</v>
       </c>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>15</v>
       </c>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>15</v>
       </c>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>15</v>
       </c>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>15</v>
       </c>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>16</v>
       </c>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>16</v>
       </c>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>16</v>
       </c>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>16</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>16</v>
       </c>
@@ -8172,7 +8172,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>16</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>16</v>
       </c>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>16</v>
       </c>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>17</v>
       </c>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>17</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>17</v>
       </c>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>17</v>
       </c>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>17</v>
       </c>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>17</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>17</v>
       </c>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>17</v>
       </c>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>17</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>17</v>
       </c>
@@ -8328,7 +8328,7 @@
       </c>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>17</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>17</v>
       </c>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>17</v>
       </c>
@@ -8364,7 +8364,7 @@
       </c>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>17</v>
       </c>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>17</v>
       </c>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>18</v>
       </c>
@@ -8400,7 +8400,7 @@
       </c>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>18</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>18:00: Dinner is served on board.</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>18</v>
       </c>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>18</v>
       </c>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>18</v>
       </c>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>18</v>
       </c>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>18</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>18</v>
       </c>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>18</v>
       </c>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>19</v>
       </c>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>19</v>
       </c>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>19</v>
       </c>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>19</v>
       </c>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>19</v>
       </c>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>19</v>
       </c>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>19</v>
       </c>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>19</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>19</v>
       </c>
@@ -8629,7 +8629,7 @@
       </c>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>19</v>
       </c>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>19</v>
       </c>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>19</v>
       </c>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>19</v>
       </c>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>20</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>20</v>
       </c>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>20</v>
       </c>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>20</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>20</v>
       </c>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>20</v>
       </c>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>20</v>
       </c>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>20</v>
       </c>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>20</v>
       </c>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>20</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>16:30: Free time</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>20</v>
       </c>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>20</v>
       </c>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>20</v>
       </c>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>20</v>
       </c>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>20</v>
       </c>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>20</v>
       </c>
@@ -8894,7 +8894,7 @@
       </c>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>20</v>
       </c>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>20</v>
       </c>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>20</v>
       </c>
@@ -8930,7 +8930,7 @@
       </c>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>20</v>
       </c>
@@ -8942,7 +8942,7 @@
       </c>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>20</v>
       </c>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>20</v>
       </c>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>20</v>
       </c>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>20</v>
       </c>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>20</v>
       </c>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>20</v>
       </c>
@@ -9014,7 +9014,7 @@
       </c>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>20</v>
       </c>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>20</v>
       </c>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>20</v>
       </c>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>21</v>
       </c>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>21</v>
       </c>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>21</v>
       </c>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>21</v>
       </c>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>21</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>21</v>
       </c>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>21</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>21</v>
       </c>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>21</v>
       </c>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>21</v>
       </c>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>21</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>08:30: Departure</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>21</v>
       </c>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>21</v>
       </c>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>21</v>
       </c>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>22</v>
       </c>
@@ -9242,7 +9242,7 @@
       </c>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>22</v>
       </c>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>22</v>
       </c>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>22</v>
       </c>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>22</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>22</v>
       </c>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>22</v>
       </c>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>22</v>
       </c>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>22</v>
       </c>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>22</v>
       </c>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>22</v>
       </c>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>22</v>
       </c>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>22</v>
       </c>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>22</v>
       </c>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>22</v>
       </c>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>22</v>
       </c>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>22</v>
       </c>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>22</v>
       </c>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>22</v>
       </c>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>23</v>
       </c>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>23</v>
       </c>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>23</v>
       </c>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>23</v>
       </c>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>23</v>
       </c>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>23</v>
       </c>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>23</v>
       </c>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>23</v>
       </c>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>23</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>23</v>
       </c>
@@ -9578,7 +9578,7 @@
       </c>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>23</v>
       </c>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>23</v>
       </c>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>23</v>
       </c>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>23</v>
       </c>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>23</v>
       </c>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>23</v>
       </c>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>23</v>
       </c>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>23</v>
       </c>
@@ -9674,7 +9674,7 @@
       </c>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>23</v>
       </c>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>24</v>
       </c>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>24</v>
       </c>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>24</v>
       </c>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>24</v>
       </c>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>24</v>
       </c>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>24</v>
       </c>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>24</v>
       </c>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>24</v>
       </c>
@@ -9782,7 +9782,7 @@
       </c>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>24</v>
       </c>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>24</v>
       </c>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>24</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>24</v>
       </c>
@@ -9830,7 +9830,7 @@
       </c>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>24</v>
       </c>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>24</v>
       </c>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>25</v>
       </c>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>25</v>
       </c>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>25</v>
       </c>
@@ -9891,7 +9891,7 @@
       <c r="D281" s="1"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>25</v>
       </c>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>25</v>
       </c>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>25</v>
       </c>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>25</v>
       </c>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>25</v>
       </c>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>25</v>
       </c>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>25</v>
       </c>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>25</v>
       </c>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>25</v>
       </c>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>25</v>
       </c>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>25</v>
       </c>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>26</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="D293" s="1"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>26</v>
       </c>
@@ -10049,7 +10049,7 @@
       <c r="D294" s="1"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>26</v>
       </c>
@@ -10062,7 +10062,7 @@
       <c r="D295" s="1"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>26</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="D296" s="1"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>26</v>
       </c>
@@ -10088,7 +10088,7 @@
       <c r="D297" s="1"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>26</v>
       </c>
@@ -10101,7 +10101,7 @@
       <c r="D298" s="1"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>27</v>
       </c>
@@ -10114,7 +10114,7 @@
       <c r="D299" s="1"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>27</v>
       </c>
@@ -10127,7 +10127,7 @@
       <c r="D300" s="1"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>27</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="D301" s="1"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>27</v>
       </c>
@@ -10153,7 +10153,7 @@
       <c r="D302" s="1"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>27</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="D303" s="1"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>28</v>
       </c>
@@ -10179,7 +10179,7 @@
       <c r="D304" s="1"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>28</v>
       </c>
@@ -10192,7 +10192,7 @@
       <c r="D305" s="1"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>28</v>
       </c>
@@ -10205,7 +10205,7 @@
       <c r="D306" s="1"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>28</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="D307" s="1"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>29</v>
       </c>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>29</v>
       </c>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>29</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="D310" s="1"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>29</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="D311" s="1"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>29</v>
       </c>
@@ -10281,7 +10281,7 @@
       <c r="D312" s="1"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>29</v>
       </c>
@@ -10294,7 +10294,7 @@
       <c r="D313" s="1"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>29</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="D314" s="1"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>29</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="D315" s="1"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>29</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="D316" s="1"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>29</v>
       </c>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>30</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>30</v>
       </c>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>30</v>
       </c>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>30</v>
       </c>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>30</v>
       </c>
@@ -10406,7 +10406,7 @@
       <c r="D322" s="1"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>30</v>
       </c>
@@ -10417,46 +10417,46 @@
         <v>396</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7">
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7">
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7">
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7">
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7">
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7">
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7">
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7">
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7">
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7">
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7">
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7">
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7">
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="7:7">
       <c r="G337" s="5"/>
     </row>
   </sheetData>
@@ -10479,14 +10479,14 @@
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="127.6640625" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>99</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" t="s">
         <v>513</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" t="s">
         <v>514</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
         <v>515</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1">
       <c r="A5" t="s">
         <v>516</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6" t="s">
         <v>517</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1">
       <c r="A7" t="s">
         <v>518</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1">
       <c r="A8" t="s">
         <v>519</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1">
       <c r="A9" t="s">
         <v>520</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1">
       <c r="A10" t="s">
         <v>521</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1">
       <c r="A11" t="s">
         <v>522</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12" t="s">
         <v>523</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1">
       <c r="A14" t="s">
         <v>542</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1">
       <c r="A15" t="s">
         <v>552</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17" t="s">
         <v>558</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" t="s">
         <v>559</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" t="s">
         <v>560</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1">
       <c r="A22" t="s">
         <v>525</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1">
       <c r="A23" t="s">
         <v>526</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24" t="s">
         <v>527</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1">
       <c r="A25" t="s">
         <v>528</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26" t="s">
         <v>543</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1">
       <c r="A27" t="s">
         <v>529</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" t="s">
         <v>544</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1">
       <c r="A29" t="s">
         <v>530</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" t="s">
         <v>545</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" t="s">
         <v>531</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" t="s">
         <v>546</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" t="s">
         <v>553</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" t="s">
         <v>557</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>532</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>547</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>533</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>548</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>534</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>549</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>554</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>535</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>550</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>536</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>551</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>555</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>537</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>538</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>539</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>540</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>541</v>
       </c>

--- a/sampleData/tour.xlsx
+++ b/sampleData/tour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\project_capsure\n.05-docker-mongo\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2833A5-A887-4336-9068-FE31099E89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF45608-7F5B-4F99-BDFA-44C7287FF30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{411CAE02-2DFB-4ACC-A9DF-9214D5D1CA1A}"/>
   </bookViews>
@@ -1885,7 +1885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1942,7 +1942,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1987,6 +1987,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2060,8 +2066,8 @@
     <tableColumn id="7" xr3:uid="{FC5FD060-4675-4052-A547-E1FBDEAB02C4}" uniqueName="7" name="displayPrice" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{926E9B7D-942A-4FD3-A894-1828AA35DDAA}" uniqueName="8" name="childPrice" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{DF9CD1E2-0B65-43BF-825B-42D488F46CBA}" uniqueName="9" name="adultPrice" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{82D59D23-5DF6-4895-BDFE-9075DFE50E38}" uniqueName="10" name="openTIme" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{00DBE551-7FC6-49EA-873C-445E1F2BAF1C}" uniqueName="11" name="closeTime" queryTableFieldId="11"/>
+    <tableColumn id="10" xr3:uid="{82D59D23-5DF6-4895-BDFE-9075DFE50E38}" uniqueName="10" name="openTIme" queryTableFieldId="10" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00DBE551-7FC6-49EA-873C-445E1F2BAF1C}" uniqueName="11" name="closeTime" queryTableFieldId="11" dataDxfId="15"/>
     <tableColumn id="15" xr3:uid="{D2B2955E-FE01-4D60-A9ED-458619C4D5BB}" uniqueName="15" name="status" queryTableFieldId="15"/>
     <tableColumn id="17" xr3:uid="{494E1533-74AC-4E95-BE32-2D412523095E}" uniqueName="17" name="pickUp" queryTableFieldId="16"/>
     <tableColumn id="18" xr3:uid="{8ADE9AF4-D099-41EF-BCDA-137F5A8DBF32}" uniqueName="18" name="dayAmount" queryTableFieldId="17" dataDxfId="14">
@@ -2397,11 +2403,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539AAB4C-DBE9-4CDE-BC53-E536037E9BC6}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
@@ -2419,7 +2425,7 @@
     <col min="20" max="20" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>568</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>45261</v>
       </c>
       <c r="L2" s="3">
-        <v>44927</v>
+        <v>45292</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -2594,7 +2600,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>575</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>45262</v>
       </c>
       <c r="L3" s="3">
-        <v>44928</v>
+        <v>45293</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
@@ -2674,7 +2680,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>45263</v>
       </c>
       <c r="L4" s="3">
-        <v>44929</v>
+        <v>45294</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
@@ -2754,7 +2760,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>569</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>45264</v>
       </c>
       <c r="L5" s="3">
-        <v>44930</v>
+        <v>45295</v>
       </c>
       <c r="M5" t="s">
         <v>1</v>
@@ -2834,7 +2840,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>572</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>45265</v>
       </c>
       <c r="L6" s="3">
-        <v>44931</v>
+        <v>45296</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
@@ -2914,7 +2920,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>573</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>45266</v>
       </c>
       <c r="L7" s="3">
-        <v>44932</v>
+        <v>45297</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
@@ -2994,7 +3000,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>570</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>45267</v>
       </c>
       <c r="L8" s="3">
-        <v>44933</v>
+        <v>45298</v>
       </c>
       <c r="M8" t="s">
         <v>1</v>
@@ -3074,7 +3080,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>571</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>45268</v>
       </c>
       <c r="L9" s="3">
-        <v>44934</v>
+        <v>45299</v>
       </c>
       <c r="M9" t="s">
         <v>1</v>
@@ -3154,7 +3160,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>578</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>45269</v>
       </c>
       <c r="L10" s="3">
-        <v>44935</v>
+        <v>45300</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
@@ -3234,7 +3240,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>593</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>45270</v>
       </c>
       <c r="L11" s="3">
-        <v>44936</v>
+        <v>45301</v>
       </c>
       <c r="M11" t="s">
         <v>1</v>
@@ -3314,7 +3320,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>592</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>45271</v>
       </c>
       <c r="L12" s="3">
-        <v>44937</v>
+        <v>45302</v>
       </c>
       <c r="M12" t="s">
         <v>1</v>
@@ -3394,7 +3400,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>579</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>45272</v>
       </c>
       <c r="L13" s="3">
-        <v>44938</v>
+        <v>45303</v>
       </c>
       <c r="M13" t="s">
         <v>1</v>
@@ -3495,7 +3501,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>577</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>45273</v>
       </c>
       <c r="L14" s="3">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="M14" t="s">
         <v>1</v>
@@ -3575,7 +3581,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>574</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>45274</v>
       </c>
       <c r="L15" s="3">
-        <v>44940</v>
+        <v>45305</v>
       </c>
       <c r="M15" t="s">
         <v>1</v>
@@ -3655,7 +3661,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>580</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>45275</v>
       </c>
       <c r="L16" s="3">
-        <v>44941</v>
+        <v>45306</v>
       </c>
       <c r="M16" t="s">
         <v>1</v>
@@ -3735,7 +3741,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>582</v>
       </c>
@@ -3770,7 +3776,7 @@
         <v>45276</v>
       </c>
       <c r="L17" s="3">
-        <v>44942</v>
+        <v>45307</v>
       </c>
       <c r="M17" t="s">
         <v>1</v>
@@ -3815,7 +3821,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>581</v>
       </c>
@@ -3850,7 +3856,7 @@
         <v>45277</v>
       </c>
       <c r="L18" s="3">
-        <v>44943</v>
+        <v>45308</v>
       </c>
       <c r="M18" t="s">
         <v>1</v>
@@ -3897,7 +3903,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>586</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>45278</v>
       </c>
       <c r="L19" s="3">
-        <v>44944</v>
+        <v>45309</v>
       </c>
       <c r="M19" t="s">
         <v>1</v>
@@ -3980,7 +3986,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>583</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>45279</v>
       </c>
       <c r="L20" s="3">
-        <v>44945</v>
+        <v>45310</v>
       </c>
       <c r="M20" t="s">
         <v>1</v>
@@ -4062,7 +4068,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>584</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>45280</v>
       </c>
       <c r="L21" s="3">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="M21" t="s">
         <v>1</v>
@@ -4151,7 +4157,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>585</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>45281</v>
       </c>
       <c r="L22" s="3">
-        <v>44947</v>
+        <v>45312</v>
       </c>
       <c r="M22" t="s">
         <v>1</v>
@@ -4233,7 +4239,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>586</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>45282</v>
       </c>
       <c r="L23" s="3">
-        <v>44948</v>
+        <v>45313</v>
       </c>
       <c r="M23" t="s">
         <v>1</v>
@@ -4316,7 +4322,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>587</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>45283</v>
       </c>
       <c r="L24" s="3">
-        <v>44949</v>
+        <v>45314</v>
       </c>
       <c r="M24" t="s">
         <v>1</v>
@@ -4402,7 +4408,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>588</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>45284</v>
       </c>
       <c r="L25" s="3">
-        <v>44950</v>
+        <v>45315</v>
       </c>
       <c r="M25" t="s">
         <v>1</v>
@@ -4485,7 +4491,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>596</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>45285</v>
       </c>
       <c r="L26" s="3">
-        <v>44951</v>
+        <v>45316</v>
       </c>
       <c r="M26" t="s">
         <v>1</v>
@@ -4571,7 +4577,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>591</v>
       </c>
@@ -4606,7 +4612,7 @@
         <v>45286</v>
       </c>
       <c r="L27" s="3">
-        <v>44952</v>
+        <v>45317</v>
       </c>
       <c r="M27" t="s">
         <v>1</v>
@@ -4651,7 +4657,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>589</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>45287</v>
       </c>
       <c r="L28" s="3">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="M28" t="s">
         <v>1</v>
@@ -4731,7 +4737,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>595</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>45288</v>
       </c>
       <c r="L29" s="3">
-        <v>44954</v>
+        <v>45319</v>
       </c>
       <c r="M29" t="s">
         <v>1</v>
@@ -4811,7 +4817,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>594</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>45289</v>
       </c>
       <c r="L30" s="3">
-        <v>44955</v>
+        <v>45320</v>
       </c>
       <c r="M30" t="s">
         <v>1</v>
@@ -4891,7 +4897,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>590</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>45290</v>
       </c>
       <c r="L31" s="3">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="M31" t="s">
         <v>1</v>
@@ -4988,18 +4994,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89277CC-FE7C-4D0C-A617-F81310558E27}">
   <dimension ref="A1:AF337"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="108" customWidth="1"/>
     <col min="4" max="4" width="33.44140625" customWidth="1"/>
     <col min="5" max="6" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -5017,7 +5023,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>19:15: Return</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5131,7 +5137,7 @@
       </c>
       <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>12:00: Return</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>15:00: Return</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>13:45: Return</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5288,7 +5294,7 @@
         <v>10:40: Return</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5328,7 +5334,7 @@
         <v>14:25: Return</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>14:30: Return</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>13:00: Return</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>12:20: Return</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5476,7 +5482,7 @@
         <v>12:30: Return</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>08:50: Pickup to hotel</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>11:00: Return</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>18:30: Get dropped off at Hotel in Hanoi</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>09:30: Return</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>18:30: Get dropped off at Hotels in Hanoi</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>18:00: Return to bungalow and have dinner</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>17:00: Take a drive to Can Tho City for your hotel check-in and the night's stay. Overnight in Can Tho City.</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>18:30: Have dinner at the hotel/local restaurant.</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>19:00: Enjoy some activities such as a bonfire, local music, karaoke, playing game...</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5843,7 +5849,7 @@
         <v>21:00: Onwards Join Oasis cruise night-life activities such as dancing, playing games, or enjoying your drinks in the jacuzzi.</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>19:00: Have dinner and overnight in hotel with night activities.</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>18:30: Have dinner and relax at homestay.</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>19:00: Our Jeep will transfer us to Ta Lai for view animals at night.</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6006,7 +6012,7 @@
         <v>19:30: Dinner will be served, offering you a taste of authentic local dishes. Afterward, take some time to unwind and rest in preparation for another exciting day.</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>5:00: Return</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>13:00: Return</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -6108,7 +6114,7 @@
         <v>14:30: Return</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>16:00: Drop off guests at the hotel.</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>18:00: Arrive to HCMC</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6206,7 +6212,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6218,7 +6224,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -6230,7 +6236,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6242,7 +6248,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -6254,7 +6260,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6266,7 +6272,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -6278,7 +6284,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -6290,7 +6296,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -6302,7 +6308,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -6314,7 +6320,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -6326,7 +6332,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6369,7 +6375,7 @@
         <v>12:00: Return to hotel</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -6385,7 +6391,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -6401,7 +6407,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6</v>
       </c>
@@ -6417,7 +6423,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6</v>
       </c>
@@ -6433,7 +6439,7 @@
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6</v>
       </c>
@@ -6482,7 +6488,7 @@
         <v>21:30: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -6519,7 +6525,7 @@
         <v>15:00: Return</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>18:30: Arrive in Hanoi.</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -6608,7 +6614,7 @@
         <v>19:00: Have dinner in Dong Van Town</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>16:00: Arrive in Hanoi Old Quarter.</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>21:00: Arrive in Hanoi, drop off at the meeting point, and go back to your hotel by yourself. Trip ends.</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7</v>
       </c>
@@ -6740,7 +6746,7 @@
         <v>19:00: Have dinner and overnight at homestay.</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>18:00: Arrive at Ho Chi Minh city.Tour ends.</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7</v>
       </c>
@@ -6817,7 +6823,7 @@
         <v>18:00: Dinner will be served, allowing you to indulge in more delicious local flavors.</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7</v>
       </c>
@@ -6833,7 +6839,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>7</v>
       </c>
@@ -6849,7 +6855,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7</v>
       </c>
@@ -6865,7 +6871,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>7</v>
       </c>
@@ -6881,7 +6887,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>8</v>
       </c>
@@ -6897,7 +6903,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8</v>
       </c>
@@ -6913,7 +6919,7 @@
       </c>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8</v>
       </c>
@@ -6929,7 +6935,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>8</v>
       </c>
@@ -6945,7 +6951,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8</v>
       </c>
@@ -6961,7 +6967,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>8</v>
       </c>
@@ -6977,7 +6983,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8</v>
       </c>
@@ -6993,7 +6999,7 @@
       </c>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>8</v>
       </c>
@@ -7009,7 +7015,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>9</v>
       </c>
@@ -7025,7 +7031,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
@@ -7041,7 +7047,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9</v>
       </c>
@@ -7057,7 +7063,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>9</v>
       </c>
@@ -7073,7 +7079,7 @@
       </c>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>9</v>
       </c>
@@ -7107,7 +7113,7 @@
         <v>17:15: Transit to Lao Cai</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>10</v>
       </c>
@@ -7123,7 +7129,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>10</v>
       </c>
@@ -7139,7 +7145,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10</v>
       </c>
@@ -7155,7 +7161,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>10</v>
       </c>
@@ -7171,7 +7177,7 @@
       </c>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>10</v>
       </c>
@@ -7187,7 +7193,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11</v>
       </c>
@@ -7203,7 +7209,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>11</v>
       </c>
@@ -7219,7 +7225,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>11</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>16:00: Go to Du Gia village for resting</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>11</v>
       </c>
@@ -7275,7 +7281,7 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>11</v>
       </c>
@@ -7291,7 +7297,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>11</v>
       </c>
@@ -7331,7 +7337,7 @@
         <v>19:00: Arrive Hanoi Opera House. Tour ends.</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12</v>
       </c>
@@ -7347,7 +7353,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>12</v>
       </c>
@@ -7381,7 +7387,7 @@
         <v>13:00:  Bid farewell to Mu Cang Chai as we embark on our journey back to Hanoi.</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -7397,7 +7403,7 @@
       </c>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>12</v>
       </c>
@@ -7413,7 +7419,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12</v>
       </c>
@@ -7429,7 +7435,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12</v>
       </c>
@@ -7445,7 +7451,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>12</v>
       </c>
@@ -7461,7 +7467,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>12</v>
       </c>
@@ -7473,7 +7479,7 @@
       </c>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>12</v>
       </c>
@@ -7485,7 +7491,7 @@
       </c>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>12</v>
       </c>
@@ -7497,7 +7503,7 @@
       </c>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>12</v>
       </c>
@@ -7509,7 +7515,7 @@
       </c>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>12</v>
       </c>
@@ -7521,7 +7527,7 @@
       </c>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12</v>
       </c>
@@ -7533,7 +7539,7 @@
       </c>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>12</v>
       </c>
@@ -7545,7 +7551,7 @@
       </c>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>12</v>
       </c>
@@ -7557,7 +7563,7 @@
       </c>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>12</v>
       </c>
@@ -7569,7 +7575,7 @@
       </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>12</v>
       </c>
@@ -7581,7 +7587,7 @@
       </c>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>12</v>
       </c>
@@ -7593,7 +7599,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>12</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>18:30: Have dinner and overnight  stay at hotel</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>12</v>
       </c>
@@ -7651,7 +7657,7 @@
       </c>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>12</v>
       </c>
@@ -7663,7 +7669,7 @@
       </c>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
@@ -7675,7 +7681,7 @@
       </c>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>12</v>
       </c>
@@ -7687,7 +7693,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>12</v>
       </c>
@@ -7699,7 +7705,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12</v>
       </c>
@@ -7711,7 +7717,7 @@
       </c>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>12</v>
       </c>
@@ -7723,7 +7729,7 @@
       </c>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>12</v>
       </c>
@@ -7763,7 +7769,7 @@
         <v>13:00: Return</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>12</v>
       </c>
@@ -7775,7 +7781,7 @@
       </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>12</v>
       </c>
@@ -7787,7 +7793,7 @@
       </c>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>12</v>
       </c>
@@ -7799,7 +7805,7 @@
       </c>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -7811,7 +7817,7 @@
       </c>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>12</v>
       </c>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>12</v>
       </c>
@@ -7835,7 +7841,7 @@
       </c>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>12</v>
       </c>
@@ -7847,7 +7853,7 @@
       </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>12</v>
       </c>
@@ -7859,7 +7865,7 @@
       </c>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>12</v>
       </c>
@@ -7871,7 +7877,7 @@
       </c>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -7883,7 +7889,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>13</v>
       </c>
@@ -7895,7 +7901,7 @@
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13</v>
       </c>
@@ -7907,7 +7913,7 @@
       </c>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13</v>
       </c>
@@ -7919,7 +7925,7 @@
       </c>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -7931,7 +7937,7 @@
       </c>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14</v>
       </c>
@@ -7943,7 +7949,7 @@
       </c>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -7955,7 +7961,7 @@
       </c>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -7967,7 +7973,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>14</v>
       </c>
@@ -7979,7 +7985,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>14</v>
       </c>
@@ -7991,7 +7997,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14</v>
       </c>
@@ -8003,7 +8009,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -8015,7 +8021,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -8052,7 +8058,7 @@
         <v>17:00: Transfer to Lao Cai station for night train back to Hanoi</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>15</v>
       </c>
@@ -8064,7 +8070,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>15</v>
       </c>
@@ -8076,7 +8082,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>15</v>
       </c>
@@ -8088,7 +8094,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>15</v>
       </c>
@@ -8100,7 +8106,7 @@
       </c>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>15</v>
       </c>
@@ -8112,7 +8118,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>16</v>
       </c>
@@ -8124,7 +8130,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>16</v>
       </c>
@@ -8136,7 +8142,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>16</v>
       </c>
@@ -8148,7 +8154,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>16</v>
       </c>
@@ -8160,7 +8166,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>16</v>
       </c>
@@ -8172,7 +8178,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>16</v>
       </c>
@@ -8184,7 +8190,7 @@
       </c>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>16</v>
       </c>
@@ -8196,7 +8202,7 @@
       </c>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>16</v>
       </c>
@@ -8208,7 +8214,7 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>17</v>
       </c>
@@ -8220,7 +8226,7 @@
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>17</v>
       </c>
@@ -8232,7 +8238,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>17</v>
       </c>
@@ -8244,7 +8250,7 @@
       </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>17</v>
       </c>
@@ -8256,7 +8262,7 @@
       </c>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>17</v>
       </c>
@@ -8268,7 +8274,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>17</v>
       </c>
@@ -8280,7 +8286,7 @@
       </c>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>17</v>
       </c>
@@ -8292,7 +8298,7 @@
       </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>17</v>
       </c>
@@ -8304,7 +8310,7 @@
       </c>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>17</v>
       </c>
@@ -8316,7 +8322,7 @@
       </c>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>17</v>
       </c>
@@ -8328,7 +8334,7 @@
       </c>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>17</v>
       </c>
@@ -8340,7 +8346,7 @@
       </c>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>17</v>
       </c>
@@ -8352,7 +8358,7 @@
       </c>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>17</v>
       </c>
@@ -8364,7 +8370,7 @@
       </c>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>17</v>
       </c>
@@ -8376,7 +8382,7 @@
       </c>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>17</v>
       </c>
@@ -8388,7 +8394,7 @@
       </c>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>18</v>
       </c>
@@ -8400,7 +8406,7 @@
       </c>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>18</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>18:00: Dinner is served on board.</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>18</v>
       </c>
@@ -8449,7 +8455,7 @@
       </c>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>18</v>
       </c>
@@ -8461,7 +8467,7 @@
       </c>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>18</v>
       </c>
@@ -8473,7 +8479,7 @@
       </c>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>18</v>
       </c>
@@ -8485,7 +8491,7 @@
       </c>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>18</v>
       </c>
@@ -8497,7 +8503,7 @@
       </c>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>18</v>
       </c>
@@ -8509,7 +8515,7 @@
       </c>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>18</v>
       </c>
@@ -8521,7 +8527,7 @@
       </c>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>19</v>
       </c>
@@ -8533,7 +8539,7 @@
       </c>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>19</v>
       </c>
@@ -8545,7 +8551,7 @@
       </c>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>19</v>
       </c>
@@ -8557,7 +8563,7 @@
       </c>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>19</v>
       </c>
@@ -8569,7 +8575,7 @@
       </c>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>19</v>
       </c>
@@ -8581,7 +8587,7 @@
       </c>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>19</v>
       </c>
@@ -8593,7 +8599,7 @@
       </c>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>19</v>
       </c>
@@ -8605,7 +8611,7 @@
       </c>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>19</v>
       </c>
@@ -8617,7 +8623,7 @@
       </c>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>19</v>
       </c>
@@ -8629,7 +8635,7 @@
       </c>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>19</v>
       </c>
@@ -8641,7 +8647,7 @@
       </c>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>19</v>
       </c>
@@ -8653,7 +8659,7 @@
       </c>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>19</v>
       </c>
@@ -8665,7 +8671,7 @@
       </c>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>19</v>
       </c>
@@ -8677,7 +8683,7 @@
       </c>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>20</v>
       </c>
@@ -8689,7 +8695,7 @@
       </c>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>20</v>
       </c>
@@ -8701,7 +8707,7 @@
       </c>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>20</v>
       </c>
@@ -8713,7 +8719,7 @@
       </c>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>20</v>
       </c>
@@ -8725,7 +8731,7 @@
       </c>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>20</v>
       </c>
@@ -8737,7 +8743,7 @@
       </c>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>20</v>
       </c>
@@ -8749,7 +8755,7 @@
       </c>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>20</v>
       </c>
@@ -8761,7 +8767,7 @@
       </c>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>20</v>
       </c>
@@ -8773,7 +8779,7 @@
       </c>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>20</v>
       </c>
@@ -8785,7 +8791,7 @@
       </c>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>20</v>
       </c>
@@ -8822,7 +8828,7 @@
         <v>16:30: Free time</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>20</v>
       </c>
@@ -8834,7 +8840,7 @@
       </c>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>20</v>
       </c>
@@ -8846,7 +8852,7 @@
       </c>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>20</v>
       </c>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>20</v>
       </c>
@@ -8870,7 +8876,7 @@
       </c>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>20</v>
       </c>
@@ -8882,7 +8888,7 @@
       </c>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>20</v>
       </c>
@@ -8894,7 +8900,7 @@
       </c>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>20</v>
       </c>
@@ -8906,7 +8912,7 @@
       </c>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>20</v>
       </c>
@@ -8918,7 +8924,7 @@
       </c>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>20</v>
       </c>
@@ -8930,7 +8936,7 @@
       </c>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>20</v>
       </c>
@@ -8942,7 +8948,7 @@
       </c>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>20</v>
       </c>
@@ -8954,7 +8960,7 @@
       </c>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>20</v>
       </c>
@@ -8966,7 +8972,7 @@
       </c>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>20</v>
       </c>
@@ -8978,7 +8984,7 @@
       </c>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>20</v>
       </c>
@@ -8990,7 +8996,7 @@
       </c>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>20</v>
       </c>
@@ -9002,7 +9008,7 @@
       </c>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>20</v>
       </c>
@@ -9014,7 +9020,7 @@
       </c>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>20</v>
       </c>
@@ -9026,7 +9032,7 @@
       </c>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>20</v>
       </c>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>20</v>
       </c>
@@ -9050,7 +9056,7 @@
       </c>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>21</v>
       </c>
@@ -9062,7 +9068,7 @@
       </c>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>21</v>
       </c>
@@ -9074,7 +9080,7 @@
       </c>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>21</v>
       </c>
@@ -9086,7 +9092,7 @@
       </c>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>21</v>
       </c>
@@ -9098,7 +9104,7 @@
       </c>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>21</v>
       </c>
@@ -9110,7 +9116,7 @@
       </c>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>21</v>
       </c>
@@ -9122,7 +9128,7 @@
       </c>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>21</v>
       </c>
@@ -9134,7 +9140,7 @@
       </c>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>21</v>
       </c>
@@ -9146,7 +9152,7 @@
       </c>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>21</v>
       </c>
@@ -9158,7 +9164,7 @@
       </c>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>21</v>
       </c>
@@ -9170,7 +9176,7 @@
       </c>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>21</v>
       </c>
@@ -9194,7 +9200,7 @@
         <v>08:30: Departure</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>21</v>
       </c>
@@ -9206,7 +9212,7 @@
       </c>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>21</v>
       </c>
@@ -9218,7 +9224,7 @@
       </c>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>21</v>
       </c>
@@ -9230,7 +9236,7 @@
       </c>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>22</v>
       </c>
@@ -9242,7 +9248,7 @@
       </c>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>22</v>
       </c>
@@ -9254,7 +9260,7 @@
       </c>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>22</v>
       </c>
@@ -9266,7 +9272,7 @@
       </c>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>22</v>
       </c>
@@ -9278,7 +9284,7 @@
       </c>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>22</v>
       </c>
@@ -9290,7 +9296,7 @@
       </c>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>22</v>
       </c>
@@ -9302,7 +9308,7 @@
       </c>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>22</v>
       </c>
@@ -9314,7 +9320,7 @@
       </c>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>22</v>
       </c>
@@ -9326,7 +9332,7 @@
       </c>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>22</v>
       </c>
@@ -9338,7 +9344,7 @@
       </c>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>22</v>
       </c>
@@ -9350,7 +9356,7 @@
       </c>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>22</v>
       </c>
@@ -9362,7 +9368,7 @@
       </c>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>22</v>
       </c>
@@ -9374,7 +9380,7 @@
       </c>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>22</v>
       </c>
@@ -9386,7 +9392,7 @@
       </c>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>22</v>
       </c>
@@ -9398,7 +9404,7 @@
       </c>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>22</v>
       </c>
@@ -9410,7 +9416,7 @@
       </c>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>22</v>
       </c>
@@ -9422,7 +9428,7 @@
       </c>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>22</v>
       </c>
@@ -9434,7 +9440,7 @@
       </c>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>22</v>
       </c>
@@ -9446,7 +9452,7 @@
       </c>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>22</v>
       </c>
@@ -9458,7 +9464,7 @@
       </c>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>23</v>
       </c>
@@ -9470,7 +9476,7 @@
       </c>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>23</v>
       </c>
@@ -9482,7 +9488,7 @@
       </c>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>23</v>
       </c>
@@ -9494,7 +9500,7 @@
       </c>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>23</v>
       </c>
@@ -9506,7 +9512,7 @@
       </c>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>23</v>
       </c>
@@ -9518,7 +9524,7 @@
       </c>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>23</v>
       </c>
@@ -9530,7 +9536,7 @@
       </c>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>23</v>
       </c>
@@ -9542,7 +9548,7 @@
       </c>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>23</v>
       </c>
@@ -9554,7 +9560,7 @@
       </c>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>23</v>
       </c>
@@ -9566,7 +9572,7 @@
       </c>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>23</v>
       </c>
@@ -9578,7 +9584,7 @@
       </c>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>23</v>
       </c>
@@ -9590,7 +9596,7 @@
       </c>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>23</v>
       </c>
@@ -9602,7 +9608,7 @@
       </c>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>23</v>
       </c>
@@ -9614,7 +9620,7 @@
       </c>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>23</v>
       </c>
@@ -9626,7 +9632,7 @@
       </c>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>23</v>
       </c>
@@ -9638,7 +9644,7 @@
       </c>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>23</v>
       </c>
@@ -9650,7 +9656,7 @@
       </c>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>23</v>
       </c>
@@ -9662,7 +9668,7 @@
       </c>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>23</v>
       </c>
@@ -9674,7 +9680,7 @@
       </c>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>23</v>
       </c>
@@ -9686,7 +9692,7 @@
       </c>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>24</v>
       </c>
@@ -9698,7 +9704,7 @@
       </c>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>24</v>
       </c>
@@ -9710,7 +9716,7 @@
       </c>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>24</v>
       </c>
@@ -9722,7 +9728,7 @@
       </c>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>24</v>
       </c>
@@ -9734,7 +9740,7 @@
       </c>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>24</v>
       </c>
@@ -9746,7 +9752,7 @@
       </c>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>24</v>
       </c>
@@ -9758,7 +9764,7 @@
       </c>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>24</v>
       </c>
@@ -9770,7 +9776,7 @@
       </c>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>24</v>
       </c>
@@ -9782,7 +9788,7 @@
       </c>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>24</v>
       </c>
@@ -9794,7 +9800,7 @@
       </c>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>24</v>
       </c>
@@ -9806,7 +9812,7 @@
       </c>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>24</v>
       </c>
@@ -9818,7 +9824,7 @@
       </c>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>24</v>
       </c>
@@ -9830,7 +9836,7 @@
       </c>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>24</v>
       </c>
@@ -9842,7 +9848,7 @@
       </c>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>24</v>
       </c>
@@ -9854,7 +9860,7 @@
       </c>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>25</v>
       </c>
@@ -9866,7 +9872,7 @@
       </c>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>25</v>
       </c>
@@ -9878,7 +9884,7 @@
       </c>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>25</v>
       </c>
@@ -9891,7 +9897,7 @@
       <c r="D281" s="1"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>25</v>
       </c>
@@ -9903,7 +9909,7 @@
       </c>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>25</v>
       </c>
@@ -9915,7 +9921,7 @@
       </c>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>25</v>
       </c>
@@ -9927,7 +9933,7 @@
       </c>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>25</v>
       </c>
@@ -9939,7 +9945,7 @@
       </c>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>25</v>
       </c>
@@ -9951,7 +9957,7 @@
       </c>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>25</v>
       </c>
@@ -9963,7 +9969,7 @@
       </c>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>25</v>
       </c>
@@ -9975,7 +9981,7 @@
       </c>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>25</v>
       </c>
@@ -9987,7 +9993,7 @@
       </c>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>25</v>
       </c>
@@ -9999,7 +10005,7 @@
       </c>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>25</v>
       </c>
@@ -10011,7 +10017,7 @@
       </c>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>25</v>
       </c>
@@ -10023,7 +10029,7 @@
       </c>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>26</v>
       </c>
@@ -10036,7 +10042,7 @@
       <c r="D293" s="1"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>26</v>
       </c>
@@ -10049,7 +10055,7 @@
       <c r="D294" s="1"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>26</v>
       </c>
@@ -10062,7 +10068,7 @@
       <c r="D295" s="1"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>26</v>
       </c>
@@ -10075,7 +10081,7 @@
       <c r="D296" s="1"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>26</v>
       </c>
@@ -10088,7 +10094,7 @@
       <c r="D297" s="1"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>26</v>
       </c>
@@ -10101,7 +10107,7 @@
       <c r="D298" s="1"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>27</v>
       </c>
@@ -10114,7 +10120,7 @@
       <c r="D299" s="1"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>27</v>
       </c>
@@ -10127,7 +10133,7 @@
       <c r="D300" s="1"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>27</v>
       </c>
@@ -10140,7 +10146,7 @@
       <c r="D301" s="1"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>27</v>
       </c>
@@ -10153,7 +10159,7 @@
       <c r="D302" s="1"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>27</v>
       </c>
@@ -10166,7 +10172,7 @@
       <c r="D303" s="1"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>28</v>
       </c>
@@ -10179,7 +10185,7 @@
       <c r="D304" s="1"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>28</v>
       </c>
@@ -10192,7 +10198,7 @@
       <c r="D305" s="1"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>28</v>
       </c>
@@ -10205,7 +10211,7 @@
       <c r="D306" s="1"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>28</v>
       </c>
@@ -10218,7 +10224,7 @@
       <c r="D307" s="1"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>29</v>
       </c>
@@ -10230,7 +10236,7 @@
       </c>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>29</v>
       </c>
@@ -10242,7 +10248,7 @@
       </c>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>29</v>
       </c>
@@ -10255,7 +10261,7 @@
       <c r="D310" s="1"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>29</v>
       </c>
@@ -10268,7 +10274,7 @@
       <c r="D311" s="1"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>29</v>
       </c>
@@ -10281,7 +10287,7 @@
       <c r="D312" s="1"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>29</v>
       </c>
@@ -10294,7 +10300,7 @@
       <c r="D313" s="1"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>29</v>
       </c>
@@ -10307,7 +10313,7 @@
       <c r="D314" s="1"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>29</v>
       </c>
@@ -10320,7 +10326,7 @@
       <c r="D315" s="1"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>29</v>
       </c>
@@ -10333,7 +10339,7 @@
       <c r="D316" s="1"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>29</v>
       </c>
@@ -10345,7 +10351,7 @@
       </c>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>30</v>
       </c>
@@ -10357,7 +10363,7 @@
       </c>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>30</v>
       </c>
@@ -10369,7 +10375,7 @@
       </c>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>30</v>
       </c>
@@ -10381,7 +10387,7 @@
       </c>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>30</v>
       </c>
@@ -10393,7 +10399,7 @@
       </c>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>30</v>
       </c>
@@ -10406,7 +10412,7 @@
       <c r="D322" s="1"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>30</v>
       </c>
@@ -10417,46 +10423,46 @@
         <v>396</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="7:7">
+    <row r="337" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G337" s="5"/>
     </row>
   </sheetData>
@@ -10479,14 +10485,14 @@
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="127.6640625" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>99</v>
       </c>
@@ -10494,7 +10500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>513</v>
       </c>
@@ -10505,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>514</v>
       </c>
@@ -10516,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>515</v>
       </c>
@@ -10527,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>516</v>
       </c>
@@ -10538,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>517</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>518</v>
       </c>
@@ -10560,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>519</v>
       </c>
@@ -10571,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>520</v>
       </c>
@@ -10582,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>521</v>
       </c>
@@ -10593,7 +10599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>522</v>
       </c>
@@ -10604,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>523</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -10626,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>542</v>
       </c>
@@ -10637,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>552</v>
       </c>
@@ -10648,7 +10654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -10659,7 +10665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>558</v>
       </c>
@@ -10670,7 +10676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>559</v>
       </c>
@@ -10681,7 +10687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>560</v>
       </c>
@@ -10692,7 +10698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -10703,7 +10709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>525</v>
       </c>
@@ -10725,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>526</v>
       </c>
@@ -10736,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>527</v>
       </c>
@@ -10747,7 +10753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>528</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>543</v>
       </c>
@@ -10769,7 +10775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>529</v>
       </c>
@@ -10780,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>544</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>530</v>
       </c>
@@ -10802,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>545</v>
       </c>
@@ -10813,7 +10819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>531</v>
       </c>
@@ -10824,7 +10830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>546</v>
       </c>
@@ -10835,7 +10841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>553</v>
       </c>
@@ -10846,7 +10852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>557</v>
       </c>
@@ -10857,7 +10863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>532</v>
       </c>
@@ -10868,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>547</v>
       </c>
@@ -10879,7 +10885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>533</v>
       </c>
@@ -10890,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>548</v>
       </c>
@@ -10901,7 +10907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>534</v>
       </c>
@@ -10912,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>549</v>
       </c>
@@ -10923,7 +10929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>554</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>535</v>
       </c>
@@ -10945,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>550</v>
       </c>
@@ -10956,7 +10962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>536</v>
       </c>
@@ -10967,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>551</v>
       </c>
@@ -10978,7 +10984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>555</v>
       </c>
@@ -10989,7 +10995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>537</v>
       </c>
@@ -11000,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>538</v>
       </c>
@@ -11011,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>539</v>
       </c>
@@ -11022,7 +11028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>540</v>
       </c>
@@ -11033,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>541</v>
       </c>

--- a/sampleData/tour.xlsx
+++ b/sampleData/tour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\project_capsure\n.05-docker-mongo\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF45608-7F5B-4F99-BDFA-44C7287FF30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47E384-2375-4216-A2A5-DCB743EAD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{411CAE02-2DFB-4ACC-A9DF-9214D5D1CA1A}"/>
   </bookViews>
@@ -2404,7 +2404,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
